--- a/Data/ROY Data/rookies_12_13.xlsx
+++ b/Data/ROY Data/rookies_12_13.xlsx
@@ -966,76 +966,76 @@
         <v>22</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>337</v>
+        <v>29</v>
       </c>
       <c r="H2">
-        <v>5392</v>
+        <v>342</v>
       </c>
       <c r="I2">
-        <v>583</v>
+        <v>42</v>
       </c>
       <c r="J2">
-        <v>1314</v>
+        <v>75</v>
       </c>
       <c r="K2">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>293</v>
+        <v>31</v>
       </c>
       <c r="N2">
-        <v>386</v>
+        <v>38</v>
       </c>
       <c r="O2">
-        <v>309</v>
+        <v>30</v>
       </c>
       <c r="P2">
-        <v>1179</v>
+        <v>77</v>
       </c>
       <c r="Q2">
-        <v>217</v>
+        <v>11</v>
       </c>
       <c r="R2">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="S2">
-        <v>135</v>
+        <v>15</v>
       </c>
       <c r="T2">
-        <v>219</v>
+        <v>17</v>
       </c>
       <c r="U2">
-        <v>665</v>
+        <v>53</v>
       </c>
       <c r="V2">
-        <v>1642</v>
+        <v>116</v>
       </c>
       <c r="W2">
-        <v>0.444</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X2">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="Y2">
-        <v>0.759</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="Z2">
-        <v>16</v>
+        <v>11.8</v>
       </c>
       <c r="AA2">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="AB2">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="AC2">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD2" t="s">
         <v>160</v>
@@ -1147,76 +1147,76 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>605</v>
+        <v>81</v>
       </c>
       <c r="H4">
-        <v>18859</v>
+        <v>2058</v>
       </c>
       <c r="I4">
-        <v>3055</v>
+        <v>276</v>
       </c>
       <c r="J4">
-        <v>6827</v>
+        <v>628</v>
       </c>
       <c r="K4">
-        <v>752</v>
+        <v>52</v>
       </c>
       <c r="L4">
-        <v>2005</v>
+        <v>145</v>
       </c>
       <c r="M4">
-        <v>1411</v>
+        <v>144</v>
       </c>
       <c r="N4">
-        <v>1773</v>
+        <v>190</v>
       </c>
       <c r="O4">
-        <v>602</v>
+        <v>53</v>
       </c>
       <c r="P4">
-        <v>2958</v>
+        <v>333</v>
       </c>
       <c r="Q4">
-        <v>983</v>
+        <v>98</v>
       </c>
       <c r="R4">
-        <v>423</v>
+        <v>52</v>
       </c>
       <c r="S4">
-        <v>115</v>
+        <v>14</v>
       </c>
       <c r="T4">
-        <v>713</v>
+        <v>101</v>
       </c>
       <c r="U4">
-        <v>1008</v>
+        <v>140</v>
       </c>
       <c r="V4">
-        <v>8273</v>
+        <v>748</v>
       </c>
       <c r="W4">
-        <v>0.447</v>
+        <v>0.439</v>
       </c>
       <c r="X4">
-        <v>0.375</v>
+        <v>0.359</v>
       </c>
       <c r="Y4">
-        <v>0.796</v>
+        <v>0.758</v>
       </c>
       <c r="Z4">
-        <v>31.2</v>
+        <v>25.4</v>
       </c>
       <c r="AA4">
-        <v>13.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB4">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="AC4">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD4" t="s">
         <v>160</v>
@@ -1239,76 +1239,76 @@
         <v>22</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>496</v>
+        <v>73</v>
       </c>
       <c r="H5">
-        <v>12110</v>
+        <v>894</v>
       </c>
       <c r="I5">
-        <v>2035</v>
+        <v>118</v>
       </c>
       <c r="J5">
-        <v>4693</v>
+        <v>309</v>
       </c>
       <c r="K5">
-        <v>572</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>1649</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>850</v>
+        <v>50</v>
       </c>
       <c r="N5">
-        <v>1082</v>
+        <v>65</v>
       </c>
       <c r="O5">
-        <v>373</v>
+        <v>36</v>
       </c>
       <c r="P5">
-        <v>2089</v>
+        <v>145</v>
       </c>
       <c r="Q5">
-        <v>1248</v>
+        <v>58</v>
       </c>
       <c r="R5">
-        <v>371</v>
+        <v>34</v>
       </c>
       <c r="S5">
-        <v>205</v>
+        <v>9</v>
       </c>
       <c r="T5">
-        <v>677</v>
+        <v>60</v>
       </c>
       <c r="U5">
-        <v>785</v>
+        <v>56</v>
       </c>
       <c r="V5">
-        <v>5492</v>
+        <v>295</v>
       </c>
       <c r="W5">
-        <v>0.434</v>
+        <v>0.382</v>
       </c>
       <c r="X5">
-        <v>0.347</v>
+        <v>0.138</v>
       </c>
       <c r="Y5">
-        <v>0.786</v>
+        <v>0.769</v>
       </c>
       <c r="Z5">
-        <v>24.4</v>
+        <v>12.2</v>
       </c>
       <c r="AA5">
-        <v>11.1</v>
+        <v>4</v>
       </c>
       <c r="AB5">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="AC5">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="AD5" t="s">
         <v>160</v>
@@ -1331,76 +1331,76 @@
         <v>26</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>469</v>
+        <v>16</v>
       </c>
       <c r="H6">
-        <v>7390</v>
+        <v>141</v>
       </c>
       <c r="I6">
-        <v>1109</v>
+        <v>18</v>
       </c>
       <c r="J6">
-        <v>2239</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>257</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>489</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>611</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>718</v>
+        <v>12</v>
       </c>
       <c r="P6">
-        <v>2123</v>
+        <v>32</v>
       </c>
       <c r="Q6">
-        <v>374</v>
+        <v>5</v>
       </c>
       <c r="R6">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="T6">
-        <v>399</v>
+        <v>11</v>
       </c>
       <c r="U6">
-        <v>1045</v>
+        <v>23</v>
       </c>
       <c r="V6">
-        <v>2791</v>
+        <v>43</v>
       </c>
       <c r="W6">
-        <v>0.495</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
-        <v>0.327</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.8</v>
+        <v>0.583</v>
       </c>
       <c r="Z6">
-        <v>15.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA6">
-        <v>6</v>
+        <v>2.7</v>
       </c>
       <c r="AB6">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="AC6">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="AD6" t="s">
         <v>160</v>
@@ -1423,76 +1423,76 @@
         <v>23</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>548</v>
+        <v>61</v>
       </c>
       <c r="H7">
-        <v>11607</v>
+        <v>267</v>
       </c>
       <c r="I7">
-        <v>1696</v>
+        <v>43</v>
       </c>
       <c r="J7">
-        <v>4106</v>
+        <v>116</v>
       </c>
       <c r="K7">
-        <v>585</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>1670</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>792</v>
+        <v>27</v>
       </c>
       <c r="N7">
-        <v>1091</v>
+        <v>44</v>
       </c>
       <c r="O7">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>1768</v>
+        <v>22</v>
       </c>
       <c r="Q7">
-        <v>1009</v>
+        <v>22</v>
       </c>
       <c r="R7">
-        <v>562</v>
+        <v>17</v>
       </c>
       <c r="S7">
-        <v>266</v>
+        <v>4</v>
       </c>
       <c r="T7">
-        <v>798</v>
+        <v>18</v>
       </c>
       <c r="U7">
-        <v>1099</v>
+        <v>27</v>
       </c>
       <c r="V7">
-        <v>4769</v>
+        <v>123</v>
       </c>
       <c r="W7">
-        <v>0.413</v>
+        <v>0.371</v>
       </c>
       <c r="X7">
-        <v>0.35</v>
+        <v>0.294</v>
       </c>
       <c r="Y7">
-        <v>0.726</v>
+        <v>0.614</v>
       </c>
       <c r="Z7">
-        <v>21.2</v>
+        <v>4.4</v>
       </c>
       <c r="AA7">
-        <v>8.699999999999999</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="AC7">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD7" t="s">
         <v>160</v>
@@ -1515,76 +1515,76 @@
         <v>19</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>545</v>
+        <v>56</v>
       </c>
       <c r="H8">
-        <v>18832</v>
+        <v>1745</v>
       </c>
       <c r="I8">
-        <v>4162</v>
+        <v>282</v>
       </c>
       <c r="J8">
-        <v>9204</v>
+        <v>687</v>
       </c>
       <c r="K8">
-        <v>1241</v>
+        <v>91</v>
       </c>
       <c r="L8">
-        <v>3268</v>
+        <v>236</v>
       </c>
       <c r="M8">
-        <v>1860</v>
+        <v>125</v>
       </c>
       <c r="N8">
-        <v>2306</v>
+        <v>159</v>
       </c>
       <c r="O8">
-        <v>450</v>
+        <v>43</v>
       </c>
       <c r="P8">
-        <v>2169</v>
+        <v>211</v>
       </c>
       <c r="Q8">
-        <v>2171</v>
+        <v>137</v>
       </c>
       <c r="R8">
-        <v>622</v>
+        <v>50</v>
       </c>
       <c r="S8">
-        <v>214</v>
+        <v>29</v>
       </c>
       <c r="T8">
-        <v>1241</v>
+        <v>90</v>
       </c>
       <c r="U8">
-        <v>1200</v>
+        <v>113</v>
       </c>
       <c r="V8">
-        <v>11425</v>
+        <v>780</v>
       </c>
       <c r="W8">
-        <v>0.452</v>
+        <v>0.41</v>
       </c>
       <c r="X8">
-        <v>0.38</v>
+        <v>0.386</v>
       </c>
       <c r="Y8">
-        <v>0.8070000000000001</v>
+        <v>0.786</v>
       </c>
       <c r="Z8">
-        <v>34.6</v>
+        <v>31.2</v>
       </c>
       <c r="AA8">
-        <v>21</v>
+        <v>13.9</v>
       </c>
       <c r="AB8">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="AC8">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="AD8" t="s">
         <v>160</v>
@@ -1607,76 +1607,76 @@
         <v>24</v>
       </c>
       <c r="F9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>429</v>
+        <v>41</v>
       </c>
       <c r="H9">
-        <v>12076</v>
+        <v>713</v>
       </c>
       <c r="I9">
-        <v>1352</v>
+        <v>79</v>
       </c>
       <c r="J9">
-        <v>3267</v>
+        <v>189</v>
       </c>
       <c r="K9">
-        <v>690</v>
+        <v>36</v>
       </c>
       <c r="L9">
-        <v>1815</v>
+        <v>96</v>
       </c>
       <c r="M9">
-        <v>436</v>
+        <v>34</v>
       </c>
       <c r="N9">
-        <v>572</v>
+        <v>41</v>
       </c>
       <c r="O9">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="P9">
-        <v>1878</v>
+        <v>109</v>
       </c>
       <c r="Q9">
-        <v>1492</v>
+        <v>117</v>
       </c>
       <c r="R9">
-        <v>505</v>
+        <v>37</v>
       </c>
       <c r="S9">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="T9">
-        <v>560</v>
+        <v>44</v>
       </c>
       <c r="U9">
-        <v>1348</v>
+        <v>83</v>
       </c>
       <c r="V9">
-        <v>3830</v>
+        <v>228</v>
       </c>
       <c r="W9">
-        <v>0.414</v>
+        <v>0.418</v>
       </c>
       <c r="X9">
-        <v>0.38</v>
+        <v>0.375</v>
       </c>
       <c r="Y9">
-        <v>0.762</v>
+        <v>0.829</v>
       </c>
       <c r="Z9">
-        <v>28.1</v>
+        <v>17.4</v>
       </c>
       <c r="AA9">
-        <v>8.9</v>
+        <v>5.6</v>
       </c>
       <c r="AB9">
-        <v>4.4</v>
+        <v>2.7</v>
       </c>
       <c r="AC9">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="AD9" t="s">
         <v>160</v>
@@ -1699,76 +1699,76 @@
         <v>24</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="H10">
-        <v>1072</v>
+        <v>812</v>
       </c>
       <c r="I10">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="J10">
-        <v>251</v>
+        <v>189</v>
       </c>
       <c r="K10">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="L10">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="M10">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N10">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O10">
+        <v>31</v>
+      </c>
+      <c r="P10">
+        <v>119</v>
+      </c>
+      <c r="Q10">
         <v>43</v>
       </c>
-      <c r="P10">
-        <v>178</v>
-      </c>
-      <c r="Q10">
-        <v>56</v>
-      </c>
       <c r="R10">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="S10">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="T10">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="U10">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="V10">
-        <v>258</v>
+        <v>187</v>
       </c>
       <c r="W10">
-        <v>0.398</v>
+        <v>0.392</v>
       </c>
       <c r="X10">
-        <v>0.293</v>
+        <v>0.287</v>
       </c>
       <c r="Y10">
-        <v>0.585</v>
+        <v>0.467</v>
       </c>
       <c r="Z10">
-        <v>13.4</v>
+        <v>16.6</v>
       </c>
       <c r="AA10">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB10">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AC10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD10" t="s">
         <v>160</v>
@@ -1791,76 +1791,76 @@
         <v>28</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>171</v>
+        <v>56</v>
       </c>
       <c r="H11">
-        <v>2111</v>
+        <v>862</v>
       </c>
       <c r="I11">
-        <v>366</v>
+        <v>182</v>
       </c>
       <c r="J11">
-        <v>858</v>
+        <v>380</v>
       </c>
       <c r="K11">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="L11">
-        <v>422</v>
+        <v>140</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="N11">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="O11">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="P11">
-        <v>272</v>
+        <v>119</v>
       </c>
       <c r="Q11">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="R11">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="S11">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="T11">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="U11">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="V11">
-        <v>998</v>
+        <v>486</v>
       </c>
       <c r="W11">
-        <v>0.427</v>
+        <v>0.479</v>
       </c>
       <c r="X11">
-        <v>0.365</v>
+        <v>0.421</v>
       </c>
       <c r="Y11">
-        <v>0.752</v>
+        <v>0.759</v>
       </c>
       <c r="Z11">
-        <v>12.3</v>
+        <v>15.4</v>
       </c>
       <c r="AA11">
-        <v>5.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AB11">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="AC11">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD11" t="s">
         <v>160</v>
@@ -1883,76 +1883,76 @@
         <v>22</v>
       </c>
       <c r="F12">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>601</v>
+        <v>78</v>
       </c>
       <c r="H12">
-        <v>14848</v>
+        <v>1353</v>
       </c>
       <c r="I12">
-        <v>1979</v>
+        <v>141</v>
       </c>
       <c r="J12">
-        <v>4722</v>
+        <v>367</v>
       </c>
       <c r="K12">
-        <v>849</v>
+        <v>63</v>
       </c>
       <c r="L12">
-        <v>2526</v>
+        <v>192</v>
       </c>
       <c r="M12">
-        <v>932</v>
+        <v>47</v>
       </c>
       <c r="N12">
-        <v>1197</v>
+        <v>73</v>
       </c>
       <c r="O12">
-        <v>438</v>
+        <v>35</v>
       </c>
       <c r="P12">
-        <v>2474</v>
+        <v>187</v>
       </c>
       <c r="Q12">
-        <v>921</v>
+        <v>94</v>
       </c>
       <c r="R12">
-        <v>588</v>
+        <v>63</v>
       </c>
       <c r="S12">
-        <v>194</v>
+        <v>17</v>
       </c>
       <c r="T12">
-        <v>523</v>
+        <v>49</v>
       </c>
       <c r="U12">
-        <v>1207</v>
+        <v>128</v>
       </c>
       <c r="V12">
-        <v>5739</v>
+        <v>392</v>
       </c>
       <c r="W12">
-        <v>0.419</v>
+        <v>0.384</v>
       </c>
       <c r="X12">
-        <v>0.336</v>
+        <v>0.328</v>
       </c>
       <c r="Y12">
-        <v>0.779</v>
+        <v>0.644</v>
       </c>
       <c r="Z12">
-        <v>24.7</v>
+        <v>17.3</v>
       </c>
       <c r="AA12">
-        <v>9.5</v>
+        <v>5</v>
       </c>
       <c r="AB12">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="AC12">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AD12" t="s">
         <v>160</v>
@@ -1975,76 +1975,76 @@
         <v>21</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>84</v>
+        <v>8</v>
       </c>
       <c r="H13">
-        <v>605</v>
+        <v>26</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>173</v>
+        <v>14</v>
       </c>
       <c r="K13">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="M13">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="N13">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="O13">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="Q13">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="T13">
-        <v>32</v>
-      </c>
       <c r="U13">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="V13">
-        <v>197</v>
+        <v>16</v>
       </c>
       <c r="W13">
-        <v>0.347</v>
+        <v>0.429</v>
       </c>
       <c r="X13">
-        <v>0.306</v>
+        <v>0.667</v>
       </c>
       <c r="Y13">
-        <v>0.674</v>
+        <v>1</v>
       </c>
       <c r="Z13">
-        <v>7.2</v>
+        <v>3.3</v>
       </c>
       <c r="AA13">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AB13">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="AC13">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD13" t="s">
         <v>160</v>
@@ -2067,76 +2067,76 @@
         <v>19</v>
       </c>
       <c r="F14">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G14">
+        <v>64</v>
+      </c>
+      <c r="H14">
+        <v>1846</v>
+      </c>
+      <c r="I14">
+        <v>349</v>
+      </c>
+      <c r="J14">
+        <v>676</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>169</v>
+      </c>
+      <c r="N14">
+        <v>225</v>
+      </c>
+      <c r="O14">
+        <v>165</v>
+      </c>
+      <c r="P14">
         <v>522</v>
       </c>
-      <c r="H14">
-        <v>18033</v>
-      </c>
-      <c r="I14">
-        <v>4669</v>
-      </c>
-      <c r="J14">
-        <v>9043</v>
-      </c>
-      <c r="K14">
-        <v>248</v>
-      </c>
-      <c r="L14">
-        <v>775</v>
-      </c>
-      <c r="M14">
-        <v>2974</v>
-      </c>
-      <c r="N14">
-        <v>3708</v>
-      </c>
-      <c r="O14">
-        <v>1334</v>
-      </c>
-      <c r="P14">
-        <v>5431</v>
-      </c>
       <c r="Q14">
-        <v>1158</v>
+        <v>63</v>
       </c>
       <c r="R14">
-        <v>721</v>
+        <v>75</v>
       </c>
       <c r="S14">
-        <v>1255</v>
+        <v>112</v>
       </c>
       <c r="T14">
-        <v>1008</v>
+        <v>89</v>
       </c>
       <c r="U14">
-        <v>1248</v>
+        <v>158</v>
       </c>
       <c r="V14">
-        <v>12560</v>
+        <v>867</v>
       </c>
       <c r="W14">
         <v>0.516</v>
       </c>
       <c r="X14">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0.802</v>
+        <v>0.751</v>
       </c>
       <c r="Z14">
-        <v>34.5</v>
+        <v>28.8</v>
       </c>
       <c r="AA14">
-        <v>24.1</v>
+        <v>13.5</v>
       </c>
       <c r="AB14">
-        <v>10.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC14">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="s">
         <v>160</v>
@@ -2159,76 +2159,76 @@
         <v>25</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="H15">
-        <v>1414</v>
+        <v>920</v>
       </c>
       <c r="I15">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="J15">
-        <v>394</v>
+        <v>241</v>
       </c>
       <c r="K15">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="L15">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="M15">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="N15">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="O15">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="P15">
-        <v>211</v>
+        <v>138</v>
       </c>
       <c r="Q15">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="R15">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="S15">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="T15">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="U15">
-        <v>135</v>
+        <v>87</v>
       </c>
       <c r="V15">
-        <v>453</v>
+        <v>276</v>
       </c>
       <c r="W15">
-        <v>0.429</v>
+        <v>0.436</v>
       </c>
       <c r="X15">
-        <v>0.363</v>
+        <v>0.378</v>
       </c>
       <c r="Y15">
-        <v>0.835</v>
+        <v>0.795</v>
       </c>
       <c r="Z15">
-        <v>11.9</v>
+        <v>12.8</v>
       </c>
       <c r="AA15">
         <v>3.8</v>
       </c>
       <c r="AB15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC15">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AD15" t="s">
         <v>160</v>
@@ -2251,76 +2251,76 @@
         <v>19</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>599</v>
+        <v>60</v>
       </c>
       <c r="H16">
-        <v>18590</v>
+        <v>1243</v>
       </c>
       <c r="I16">
-        <v>3661</v>
+        <v>208</v>
       </c>
       <c r="J16">
-        <v>6760</v>
+        <v>342</v>
       </c>
       <c r="K16">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>1334</v>
+        <v>59</v>
       </c>
       <c r="N16">
-        <v>2894</v>
+        <v>159</v>
       </c>
       <c r="O16">
-        <v>2858</v>
+        <v>169</v>
       </c>
       <c r="P16">
-        <v>8288</v>
+        <v>457</v>
       </c>
       <c r="Q16">
-        <v>778</v>
+        <v>30</v>
       </c>
       <c r="R16">
-        <v>835</v>
+        <v>59</v>
       </c>
       <c r="S16">
-        <v>938</v>
+        <v>95</v>
       </c>
       <c r="T16">
-        <v>1172</v>
+        <v>57</v>
       </c>
       <c r="U16">
-        <v>1907</v>
+        <v>144</v>
       </c>
       <c r="V16">
-        <v>8671</v>
+        <v>476</v>
       </c>
       <c r="W16">
-        <v>0.542</v>
+        <v>0.608</v>
       </c>
       <c r="X16">
-        <v>0.146</v>
+        <v>0.5</v>
       </c>
       <c r="Y16">
-        <v>0.461</v>
+        <v>0.371</v>
       </c>
       <c r="Z16">
-        <v>31</v>
+        <v>20.7</v>
       </c>
       <c r="AA16">
-        <v>14.5</v>
+        <v>7.9</v>
       </c>
       <c r="AB16">
-        <v>13.8</v>
+        <v>7.6</v>
       </c>
       <c r="AC16">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD16" t="s">
         <v>160</v>
@@ -2435,19 +2435,19 @@
         <v>23</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="H18">
-        <v>2394</v>
+        <v>1120</v>
       </c>
       <c r="I18">
-        <v>275</v>
+        <v>74</v>
       </c>
       <c r="J18">
-        <v>536</v>
+        <v>169</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2456,52 +2456,52 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="N18">
-        <v>291</v>
+        <v>81</v>
       </c>
       <c r="O18">
-        <v>292</v>
+        <v>141</v>
       </c>
       <c r="P18">
-        <v>725</v>
+        <v>313</v>
       </c>
       <c r="Q18">
+        <v>22</v>
+      </c>
+      <c r="R18">
+        <v>23</v>
+      </c>
+      <c r="S18">
+        <v>74</v>
+      </c>
+      <c r="T18">
         <v>63</v>
       </c>
-      <c r="R18">
-        <v>48</v>
-      </c>
-      <c r="S18">
-        <v>166</v>
-      </c>
-      <c r="T18">
-        <v>133</v>
-      </c>
       <c r="U18">
-        <v>328</v>
+        <v>157</v>
       </c>
       <c r="V18">
-        <v>712</v>
+        <v>191</v>
       </c>
       <c r="W18">
-        <v>0.513</v>
+        <v>0.438</v>
       </c>
       <c r="Y18">
-        <v>0.5570000000000001</v>
+        <v>0.531</v>
       </c>
       <c r="Z18">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="AA18">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="AB18">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="AC18">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD18" t="s">
         <v>160</v>
@@ -2524,76 +2524,76 @@
         <v>20</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>519</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>14738</v>
+        <v>428</v>
       </c>
       <c r="I19">
-        <v>2647</v>
+        <v>75</v>
       </c>
       <c r="J19">
-        <v>5885</v>
+        <v>152</v>
       </c>
       <c r="K19">
-        <v>928</v>
+        <v>22</v>
       </c>
       <c r="L19">
-        <v>2463</v>
+        <v>54</v>
       </c>
       <c r="M19">
-        <v>1108</v>
+        <v>30</v>
       </c>
       <c r="N19">
-        <v>1373</v>
+        <v>39</v>
       </c>
       <c r="O19">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="P19">
-        <v>1420</v>
+        <v>35</v>
       </c>
       <c r="Q19">
-        <v>1349</v>
+        <v>44</v>
       </c>
       <c r="R19">
-        <v>443</v>
+        <v>19</v>
       </c>
       <c r="S19">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>858</v>
+        <v>32</v>
       </c>
       <c r="U19">
-        <v>1265</v>
+        <v>65</v>
       </c>
       <c r="V19">
-        <v>7330</v>
+        <v>202</v>
       </c>
       <c r="W19">
-        <v>0.45</v>
+        <v>0.493</v>
       </c>
       <c r="X19">
-        <v>0.377</v>
+        <v>0.407</v>
       </c>
       <c r="Y19">
-        <v>0.8070000000000001</v>
+        <v>0.769</v>
       </c>
       <c r="Z19">
-        <v>28.4</v>
+        <v>11.3</v>
       </c>
       <c r="AA19">
-        <v>14.1</v>
+        <v>5.3</v>
       </c>
       <c r="AB19">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="AC19">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AD19" t="s">
         <v>160</v>
@@ -2616,76 +2616,73 @@
         <v>25</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="H20">
-        <v>1821</v>
+        <v>477</v>
       </c>
       <c r="I20">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="J20">
-        <v>455</v>
+        <v>142</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="O20">
-        <v>190</v>
+        <v>40</v>
       </c>
       <c r="P20">
-        <v>518</v>
+        <v>119</v>
       </c>
       <c r="Q20">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="R20">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="S20">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="T20">
-        <v>74</v>
+        <v>19</v>
       </c>
       <c r="U20">
-        <v>255</v>
+        <v>67</v>
       </c>
       <c r="V20">
-        <v>477</v>
+        <v>134</v>
       </c>
       <c r="W20">
-        <v>0.459</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+        <v>0.408</v>
       </c>
       <c r="Y20">
-        <v>0.728</v>
+        <v>0.667</v>
       </c>
       <c r="Z20">
-        <v>12.1</v>
+        <v>9.4</v>
       </c>
       <c r="AA20">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="AB20">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AC20">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD20" t="s">
         <v>160</v>
@@ -2708,76 +2705,76 @@
         <v>24</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="H21">
-        <v>1197</v>
+        <v>149</v>
       </c>
       <c r="I21">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="J21">
-        <v>314</v>
+        <v>49</v>
       </c>
       <c r="K21">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>111</v>
+        <v>15</v>
       </c>
       <c r="M21">
+        <v>5</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
         <v>15</v>
       </c>
-      <c r="N21">
-        <v>22</v>
-      </c>
-      <c r="O21">
+      <c r="Q21">
+        <v>31</v>
+      </c>
+      <c r="R21">
+        <v>10</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <v>16</v>
       </c>
-      <c r="P21">
-        <v>112</v>
-      </c>
-      <c r="Q21">
-        <v>151</v>
-      </c>
-      <c r="R21">
-        <v>51</v>
-      </c>
-      <c r="S21">
+      <c r="U21">
         <v>5</v>
       </c>
-      <c r="T21">
-        <v>91</v>
-      </c>
-      <c r="U21">
-        <v>80</v>
-      </c>
       <c r="V21">
-        <v>288</v>
+        <v>40</v>
       </c>
       <c r="W21">
-        <v>0.373</v>
+        <v>0.327</v>
       </c>
       <c r="X21">
-        <v>0.351</v>
+        <v>0.2</v>
       </c>
       <c r="Y21">
-        <v>0.6820000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Z21">
-        <v>13.3</v>
+        <v>7.8</v>
       </c>
       <c r="AA21">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="AB21">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="AC21">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD21" t="s">
         <v>160</v>
@@ -2800,76 +2797,76 @@
         <v>22</v>
       </c>
       <c r="F22">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>576</v>
+        <v>79</v>
       </c>
       <c r="H22">
-        <v>16201</v>
+        <v>1061</v>
       </c>
       <c r="I22">
-        <v>1875</v>
+        <v>84</v>
       </c>
       <c r="J22">
-        <v>4307</v>
+        <v>257</v>
       </c>
       <c r="K22">
-        <v>521</v>
+        <v>14</v>
       </c>
       <c r="L22">
-        <v>1632</v>
+        <v>67</v>
       </c>
       <c r="M22">
-        <v>899</v>
+        <v>45</v>
       </c>
       <c r="N22">
-        <v>1267</v>
+        <v>55</v>
       </c>
       <c r="O22">
-        <v>648</v>
+        <v>58</v>
       </c>
       <c r="P22">
-        <v>3966</v>
+        <v>260</v>
       </c>
       <c r="Q22">
-        <v>2855</v>
+        <v>53</v>
       </c>
       <c r="R22">
-        <v>789</v>
+        <v>42</v>
       </c>
       <c r="S22">
-        <v>609</v>
+        <v>25</v>
       </c>
       <c r="T22">
-        <v>1187</v>
+        <v>51</v>
       </c>
       <c r="U22">
-        <v>1592</v>
+        <v>159</v>
       </c>
       <c r="V22">
-        <v>5170</v>
+        <v>227</v>
       </c>
       <c r="W22">
-        <v>0.435</v>
+        <v>0.327</v>
       </c>
       <c r="X22">
-        <v>0.319</v>
+        <v>0.209</v>
       </c>
       <c r="Y22">
-        <v>0.71</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Z22">
-        <v>28.1</v>
+        <v>13.4</v>
       </c>
       <c r="AA22">
-        <v>9</v>
+        <v>2.9</v>
       </c>
       <c r="AB22">
-        <v>6.9</v>
+        <v>3.3</v>
       </c>
       <c r="AC22">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="AD22" t="s">
         <v>160</v>
@@ -2984,76 +2981,76 @@
         <v>19</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>537</v>
+        <v>76</v>
       </c>
       <c r="H24">
-        <v>12384</v>
+        <v>1974</v>
       </c>
       <c r="I24">
-        <v>1534</v>
+        <v>260</v>
       </c>
       <c r="J24">
-        <v>3208</v>
+        <v>564</v>
       </c>
       <c r="K24">
-        <v>324</v>
+        <v>32</v>
       </c>
       <c r="L24">
-        <v>997</v>
+        <v>117</v>
       </c>
       <c r="M24">
-        <v>456</v>
+        <v>73</v>
       </c>
       <c r="N24">
-        <v>745</v>
+        <v>128</v>
       </c>
       <c r="O24">
-        <v>633</v>
+        <v>122</v>
       </c>
       <c r="P24">
-        <v>1997</v>
+        <v>335</v>
       </c>
       <c r="Q24">
-        <v>505</v>
+        <v>50</v>
       </c>
       <c r="R24">
-        <v>524</v>
+        <v>88</v>
       </c>
       <c r="S24">
-        <v>355</v>
+        <v>62</v>
       </c>
       <c r="T24">
-        <v>468</v>
+        <v>69</v>
       </c>
       <c r="U24">
-        <v>1102</v>
+        <v>144</v>
       </c>
       <c r="V24">
-        <v>3848</v>
+        <v>625</v>
       </c>
       <c r="W24">
-        <v>0.478</v>
+        <v>0.461</v>
       </c>
       <c r="X24">
-        <v>0.325</v>
+        <v>0.274</v>
       </c>
       <c r="Y24">
-        <v>0.612</v>
+        <v>0.57</v>
       </c>
       <c r="Z24">
-        <v>23.1</v>
+        <v>26</v>
       </c>
       <c r="AA24">
-        <v>7.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB24">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="AC24">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD24" t="s">
         <v>160</v>
@@ -3076,76 +3073,76 @@
         <v>22</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>445</v>
+        <v>63</v>
       </c>
       <c r="H25">
-        <v>8752</v>
+        <v>827</v>
       </c>
       <c r="I25">
-        <v>1438</v>
+        <v>162</v>
       </c>
       <c r="J25">
-        <v>2661</v>
+        <v>336</v>
       </c>
       <c r="K25">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>487</v>
+        <v>56</v>
       </c>
       <c r="N25">
-        <v>857</v>
+        <v>105</v>
       </c>
       <c r="O25">
-        <v>802</v>
+        <v>116</v>
       </c>
       <c r="P25">
-        <v>2368</v>
+        <v>297</v>
       </c>
       <c r="Q25">
-        <v>496</v>
+        <v>31</v>
       </c>
       <c r="R25">
-        <v>211</v>
+        <v>19</v>
       </c>
       <c r="S25">
-        <v>642</v>
+        <v>42</v>
       </c>
       <c r="T25">
-        <v>496</v>
+        <v>47</v>
       </c>
       <c r="U25">
-        <v>998</v>
+        <v>83</v>
       </c>
       <c r="V25">
-        <v>3383</v>
+        <v>380</v>
       </c>
       <c r="W25">
-        <v>0.54</v>
+        <v>0.482</v>
       </c>
       <c r="X25">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.5679999999999999</v>
+        <v>0.533</v>
       </c>
       <c r="Z25">
-        <v>19.7</v>
+        <v>13.1</v>
       </c>
       <c r="AA25">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="AB25">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="AC25">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="AD25" t="s">
         <v>160</v>
@@ -3168,76 +3165,76 @@
         <v>23</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>9</v>
+      </c>
+      <c r="H26">
+        <v>142</v>
+      </c>
+      <c r="I26">
+        <v>16</v>
+      </c>
+      <c r="J26">
+        <v>48</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>16</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>14</v>
+      </c>
+      <c r="Q26">
+        <v>15</v>
+      </c>
+      <c r="R26">
+        <v>3</v>
+      </c>
+      <c r="S26">
+        <v>6</v>
+      </c>
+      <c r="T26">
+        <v>9</v>
+      </c>
+      <c r="U26">
         <v>7</v>
       </c>
-      <c r="G26">
-        <v>422</v>
-      </c>
-      <c r="H26">
-        <v>9700</v>
-      </c>
-      <c r="I26">
-        <v>1208</v>
-      </c>
-      <c r="J26">
-        <v>3040</v>
-      </c>
-      <c r="K26">
-        <v>617</v>
-      </c>
-      <c r="L26">
-        <v>1705</v>
-      </c>
-      <c r="M26">
-        <v>412</v>
-      </c>
-      <c r="N26">
-        <v>499</v>
-      </c>
-      <c r="O26">
-        <v>158</v>
-      </c>
-      <c r="P26">
-        <v>1222</v>
-      </c>
-      <c r="Q26">
-        <v>607</v>
-      </c>
-      <c r="R26">
-        <v>416</v>
-      </c>
-      <c r="S26">
-        <v>177</v>
-      </c>
-      <c r="T26">
-        <v>380</v>
-      </c>
-      <c r="U26">
-        <v>648</v>
-      </c>
       <c r="V26">
-        <v>3445</v>
+        <v>42</v>
       </c>
       <c r="W26">
-        <v>0.397</v>
+        <v>0.333</v>
       </c>
       <c r="X26">
-        <v>0.362</v>
+        <v>0.25</v>
       </c>
       <c r="Y26">
-        <v>0.826</v>
+        <v>0.75</v>
       </c>
       <c r="Z26">
-        <v>23</v>
+        <v>15.8</v>
       </c>
       <c r="AA26">
-        <v>8.199999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="AB26">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="AC26">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="AD26" t="s">
         <v>160</v>
@@ -3260,73 +3257,73 @@
         <v>27</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="H27">
-        <v>761</v>
+        <v>457</v>
       </c>
       <c r="I27">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="J27">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="N27">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="O27">
-        <v>85</v>
+        <v>52</v>
       </c>
       <c r="P27">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="R27">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="S27">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="T27">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="U27">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="V27">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="W27">
-        <v>0.497</v>
+        <v>0.515</v>
       </c>
       <c r="X27">
         <v>0</v>
       </c>
       <c r="Y27">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="Z27">
-        <v>8.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="AA27">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AB27">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AC27">
         <v>0.1</v>
@@ -3352,76 +3349,76 @@
         <v>21</v>
       </c>
       <c r="F28">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>171</v>
+        <v>61</v>
       </c>
       <c r="H28">
-        <v>2183</v>
+        <v>902</v>
       </c>
       <c r="I28">
-        <v>311</v>
+        <v>131</v>
       </c>
       <c r="J28">
-        <v>705</v>
+        <v>294</v>
       </c>
       <c r="K28">
-        <v>117</v>
+        <v>53</v>
       </c>
       <c r="L28">
-        <v>319</v>
+        <v>138</v>
       </c>
       <c r="M28">
-        <v>116</v>
+        <v>59</v>
       </c>
       <c r="N28">
-        <v>137</v>
+        <v>70</v>
       </c>
       <c r="O28">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="P28">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="Q28">
-        <v>138</v>
+        <v>56</v>
       </c>
       <c r="R28">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="S28">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T28">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="U28">
-        <v>95</v>
+        <v>37</v>
       </c>
       <c r="V28">
-        <v>855</v>
+        <v>374</v>
       </c>
       <c r="W28">
-        <v>0.441</v>
+        <v>0.446</v>
       </c>
       <c r="X28">
-        <v>0.367</v>
+        <v>0.384</v>
       </c>
       <c r="Y28">
-        <v>0.847</v>
+        <v>0.843</v>
       </c>
       <c r="Z28">
-        <v>12.8</v>
+        <v>14.8</v>
       </c>
       <c r="AA28">
-        <v>5</v>
+        <v>6.1</v>
       </c>
       <c r="AB28">
         <v>1.5</v>
       </c>
       <c r="AC28">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD28" t="s">
         <v>160</v>
@@ -3444,76 +3441,76 @@
         <v>22</v>
       </c>
       <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>8</v>
+      </c>
+      <c r="H29">
+        <v>102</v>
+      </c>
+      <c r="I29">
+        <v>11</v>
+      </c>
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>6</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>5</v>
+      </c>
+      <c r="P29">
+        <v>11</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
         <v>4</v>
       </c>
-      <c r="G29">
-        <v>147</v>
-      </c>
-      <c r="H29">
-        <v>2274</v>
-      </c>
-      <c r="I29">
-        <v>230</v>
-      </c>
-      <c r="J29">
-        <v>587</v>
-      </c>
-      <c r="K29">
-        <v>104</v>
-      </c>
-      <c r="L29">
-        <v>339</v>
-      </c>
-      <c r="M29">
-        <v>86</v>
-      </c>
-      <c r="N29">
-        <v>103</v>
-      </c>
-      <c r="O29">
-        <v>71</v>
-      </c>
-      <c r="P29">
-        <v>295</v>
-      </c>
-      <c r="Q29">
-        <v>93</v>
-      </c>
-      <c r="R29">
-        <v>89</v>
-      </c>
       <c r="S29">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="U29">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="V29">
-        <v>650</v>
+        <v>29</v>
       </c>
       <c r="W29">
-        <v>0.392</v>
+        <v>0.44</v>
       </c>
       <c r="X29">
-        <v>0.307</v>
+        <v>0.333</v>
       </c>
       <c r="Y29">
-        <v>0.835</v>
+        <v>0.5</v>
       </c>
       <c r="Z29">
-        <v>15.5</v>
+        <v>12.8</v>
       </c>
       <c r="AA29">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB29">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AC29">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD29" t="s">
         <v>160</v>
@@ -3536,76 +3533,76 @@
         <v>23</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="H30">
-        <v>1112</v>
+        <v>619</v>
       </c>
       <c r="I30">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="J30">
-        <v>327</v>
+        <v>180</v>
       </c>
       <c r="K30">
+        <v>36</v>
+      </c>
+      <c r="L30">
+        <v>94</v>
+      </c>
+      <c r="M30">
+        <v>23</v>
+      </c>
+      <c r="N30">
+        <v>32</v>
+      </c>
+      <c r="O30">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <v>110</v>
+      </c>
+      <c r="Q30">
         <v>47</v>
       </c>
-      <c r="L30">
-        <v>151</v>
-      </c>
-      <c r="M30">
-        <v>48</v>
-      </c>
-      <c r="N30">
-        <v>66</v>
-      </c>
-      <c r="O30">
-        <v>33</v>
-      </c>
-      <c r="P30">
-        <v>180</v>
-      </c>
-      <c r="Q30">
-        <v>69</v>
-      </c>
       <c r="R30">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="S30">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T30">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="U30">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="V30">
-        <v>329</v>
+        <v>203</v>
       </c>
       <c r="W30">
-        <v>0.358</v>
+        <v>0.4</v>
       </c>
       <c r="X30">
-        <v>0.311</v>
+        <v>0.383</v>
       </c>
       <c r="Y30">
-        <v>0.727</v>
+        <v>0.719</v>
       </c>
       <c r="Z30">
-        <v>10.8</v>
+        <v>12.1</v>
       </c>
       <c r="AA30">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="AB30">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AC30">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD30" t="s">
         <v>160</v>
@@ -3628,52 +3625,52 @@
         <v>23</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H31">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="K31">
         <v>0</v>
       </c>
       <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
         <v>4</v>
       </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>2</v>
-      </c>
-      <c r="O31">
-        <v>1</v>
-      </c>
-      <c r="P31">
-        <v>6</v>
-      </c>
       <c r="Q31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3684,17 +3681,14 @@
       <c r="X31">
         <v>0</v>
       </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
       <c r="Z31">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AA31">
         <v>0</v>
       </c>
       <c r="AB31">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AC31">
         <v>0.3</v>
@@ -3901,76 +3895,76 @@
         <v>21</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>143</v>
+        <v>38</v>
       </c>
       <c r="H34">
-        <v>1675</v>
+        <v>280</v>
       </c>
       <c r="I34">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="J34">
-        <v>464</v>
+        <v>99</v>
       </c>
       <c r="K34">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <v>15</v>
+      </c>
+      <c r="O34">
+        <v>12</v>
+      </c>
+      <c r="P34">
         <v>62</v>
       </c>
-      <c r="N34">
-        <v>94</v>
-      </c>
-      <c r="O34">
-        <v>46</v>
-      </c>
-      <c r="P34">
-        <v>252</v>
-      </c>
       <c r="Q34">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="R34">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="T34">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="U34">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="V34">
-        <v>488</v>
+        <v>88</v>
       </c>
       <c r="W34">
-        <v>0.42</v>
+        <v>0.394</v>
       </c>
       <c r="X34">
-        <v>0.293</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.66</v>
+        <v>0.667</v>
       </c>
       <c r="Z34">
-        <v>11.7</v>
+        <v>7.4</v>
       </c>
       <c r="AA34">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="AB34">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AC34">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="AD34" t="s">
         <v>160</v>
@@ -3993,76 +3987,76 @@
         <v>21</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>234</v>
+        <v>19</v>
       </c>
       <c r="H35">
-        <v>5562</v>
+        <v>276</v>
       </c>
       <c r="I35">
-        <v>985</v>
+        <v>43</v>
       </c>
       <c r="J35">
-        <v>1968</v>
+        <v>94</v>
       </c>
       <c r="K35">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="L35">
-        <v>313</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>368</v>
+        <v>13</v>
       </c>
       <c r="N35">
-        <v>593</v>
+        <v>17</v>
       </c>
       <c r="O35">
-        <v>395</v>
+        <v>28</v>
       </c>
       <c r="P35">
-        <v>1334</v>
+        <v>65</v>
       </c>
       <c r="Q35">
-        <v>238</v>
+        <v>15</v>
       </c>
       <c r="R35">
-        <v>146</v>
+        <v>12</v>
       </c>
       <c r="S35">
-        <v>270</v>
+        <v>19</v>
       </c>
       <c r="T35">
-        <v>219</v>
+        <v>13</v>
       </c>
       <c r="U35">
-        <v>392</v>
+        <v>21</v>
       </c>
       <c r="V35">
-        <v>2431</v>
+        <v>104</v>
       </c>
       <c r="W35">
-        <v>0.501</v>
+        <v>0.457</v>
       </c>
       <c r="X35">
-        <v>0.297</v>
+        <v>0.263</v>
       </c>
       <c r="Y35">
-        <v>0.621</v>
+        <v>0.765</v>
       </c>
       <c r="Z35">
-        <v>23.8</v>
+        <v>14.5</v>
       </c>
       <c r="AA35">
-        <v>10.4</v>
+        <v>5.5</v>
       </c>
       <c r="AB35">
-        <v>5.7</v>
+        <v>3.4</v>
       </c>
       <c r="AC35">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AD35" t="s">
         <v>160</v>
@@ -4177,76 +4171,76 @@
         <v>19</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="H37">
-        <v>10928</v>
+        <v>2025</v>
       </c>
       <c r="I37">
-        <v>1459</v>
+        <v>281</v>
       </c>
       <c r="J37">
-        <v>3079</v>
+        <v>613</v>
       </c>
       <c r="K37">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="L37">
-        <v>103</v>
+        <v>9</v>
       </c>
       <c r="M37">
-        <v>796</v>
+        <v>140</v>
       </c>
       <c r="N37">
-        <v>1113</v>
+        <v>187</v>
       </c>
       <c r="O37">
-        <v>701</v>
+        <v>131</v>
       </c>
       <c r="P37">
-        <v>2408</v>
+        <v>455</v>
       </c>
       <c r="Q37">
-        <v>514</v>
+        <v>117</v>
       </c>
       <c r="R37">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="S37">
-        <v>303</v>
+        <v>70</v>
       </c>
       <c r="T37">
-        <v>397</v>
+        <v>101</v>
       </c>
       <c r="U37">
-        <v>951</v>
+        <v>164</v>
       </c>
       <c r="V37">
-        <v>3742</v>
+        <v>704</v>
       </c>
       <c r="W37">
-        <v>0.474</v>
+        <v>0.458</v>
       </c>
       <c r="X37">
-        <v>0.272</v>
+        <v>0.222</v>
       </c>
       <c r="Y37">
-        <v>0.715</v>
+        <v>0.749</v>
       </c>
       <c r="Z37">
-        <v>24.7</v>
+        <v>26</v>
       </c>
       <c r="AA37">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB37">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="AC37">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD37" t="s">
         <v>160</v>
@@ -4269,73 +4263,73 @@
         <v>25</v>
       </c>
       <c r="F38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>224</v>
+      </c>
+      <c r="I38">
+        <v>33</v>
+      </c>
+      <c r="J38">
+        <v>46</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>11</v>
+      </c>
+      <c r="N38">
+        <v>37</v>
+      </c>
+      <c r="O38">
+        <v>24</v>
+      </c>
+      <c r="P38">
         <v>45</v>
       </c>
-      <c r="H38">
-        <v>283</v>
-      </c>
-      <c r="I38">
-        <v>41</v>
-      </c>
-      <c r="J38">
-        <v>61</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>15</v>
-      </c>
-      <c r="N38">
-        <v>45</v>
-      </c>
-      <c r="O38">
-        <v>33</v>
-      </c>
-      <c r="P38">
-        <v>62</v>
-      </c>
       <c r="Q38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R38">
         <v>5</v>
       </c>
       <c r="S38">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T38">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="U38">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="V38">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="W38">
-        <v>0.672</v>
+        <v>0.717</v>
       </c>
       <c r="Y38">
-        <v>0.333</v>
+        <v>0.297</v>
       </c>
       <c r="Z38">
-        <v>6.3</v>
+        <v>9</v>
       </c>
       <c r="AA38">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB38">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AC38">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="AD38" t="s">
         <v>160</v>
@@ -4358,76 +4352,76 @@
         <v>21</v>
       </c>
       <c r="F39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="H39">
-        <v>1272</v>
+        <v>577</v>
       </c>
       <c r="I39">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="J39">
-        <v>323</v>
+        <v>163</v>
       </c>
       <c r="K39">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="L39">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="M39">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="N39">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="O39">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P39">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="Q39">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="R39">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="S39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T39">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="U39">
-        <v>106</v>
+        <v>52</v>
       </c>
       <c r="V39">
-        <v>345</v>
+        <v>154</v>
       </c>
       <c r="W39">
-        <v>0.381</v>
+        <v>0.368</v>
       </c>
       <c r="X39">
-        <v>0.394</v>
+        <v>0.378</v>
       </c>
       <c r="Y39">
+        <v>0.588</v>
+      </c>
+      <c r="Z39">
+        <v>12.3</v>
+      </c>
+      <c r="AA39">
+        <v>3.3</v>
+      </c>
+      <c r="AB39">
+        <v>1</v>
+      </c>
+      <c r="AC39">
         <v>0.7</v>
-      </c>
-      <c r="Z39">
-        <v>12.7</v>
-      </c>
-      <c r="AA39">
-        <v>3.5</v>
-      </c>
-      <c r="AB39">
-        <v>1</v>
-      </c>
-      <c r="AC39">
-        <v>0.8</v>
       </c>
       <c r="AD39" t="s">
         <v>160</v>
@@ -4450,76 +4444,76 @@
         <v>20</v>
       </c>
       <c r="F40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>481</v>
+        <v>23</v>
       </c>
       <c r="H40">
-        <v>10196</v>
+        <v>147</v>
       </c>
       <c r="I40">
-        <v>1874</v>
+        <v>24</v>
       </c>
       <c r="J40">
-        <v>4218</v>
+        <v>68</v>
       </c>
       <c r="K40">
-        <v>494</v>
+        <v>9</v>
       </c>
       <c r="L40">
-        <v>1457</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>790</v>
+        <v>14</v>
       </c>
       <c r="N40">
-        <v>928</v>
+        <v>14</v>
       </c>
       <c r="O40">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>1788</v>
+        <v>18</v>
       </c>
       <c r="Q40">
-        <v>770</v>
+        <v>5</v>
       </c>
       <c r="R40">
-        <v>352</v>
+        <v>2</v>
       </c>
       <c r="S40">
-        <v>173</v>
+        <v>2</v>
       </c>
       <c r="T40">
-        <v>407</v>
+        <v>6</v>
       </c>
       <c r="U40">
-        <v>793</v>
+        <v>13</v>
       </c>
       <c r="V40">
-        <v>5032</v>
+        <v>71</v>
       </c>
       <c r="W40">
-        <v>0.444</v>
+        <v>0.353</v>
       </c>
       <c r="X40">
-        <v>0.339</v>
+        <v>0.3</v>
       </c>
       <c r="Y40">
-        <v>0.851</v>
+        <v>1</v>
       </c>
       <c r="Z40">
-        <v>21.2</v>
+        <v>6.4</v>
       </c>
       <c r="AA40">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB40">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="AC40">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="AD40" t="s">
         <v>160</v>
@@ -4542,76 +4536,76 @@
         <v>20</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>442</v>
+        <v>69</v>
       </c>
       <c r="H41">
-        <v>7082</v>
+        <v>1206</v>
       </c>
       <c r="I41">
-        <v>952</v>
+        <v>151</v>
       </c>
       <c r="J41">
-        <v>1969</v>
+        <v>277</v>
       </c>
       <c r="K41">
-        <v>322</v>
+        <v>3</v>
       </c>
       <c r="L41">
-        <v>822</v>
+        <v>7</v>
       </c>
       <c r="M41">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="N41">
-        <v>316</v>
+        <v>89</v>
       </c>
       <c r="O41">
-        <v>318</v>
+        <v>80</v>
       </c>
       <c r="P41">
-        <v>1718</v>
+        <v>255</v>
       </c>
       <c r="Q41">
-        <v>391</v>
+        <v>33</v>
       </c>
       <c r="R41">
-        <v>82</v>
+        <v>11</v>
       </c>
       <c r="S41">
-        <v>127</v>
+        <v>38</v>
       </c>
       <c r="T41">
-        <v>303</v>
+        <v>49</v>
       </c>
       <c r="U41">
-        <v>956</v>
+        <v>168</v>
       </c>
       <c r="V41">
-        <v>2483</v>
+        <v>377</v>
       </c>
       <c r="W41">
-        <v>0.483</v>
+        <v>0.545</v>
       </c>
       <c r="X41">
-        <v>0.392</v>
+        <v>0.429</v>
       </c>
       <c r="Y41">
-        <v>0.8129999999999999</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="Z41">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AA41">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AB41">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AC41">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="AD41" t="s">
         <v>160</v>
@@ -4634,73 +4628,73 @@
         <v>22</v>
       </c>
       <c r="F42">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="H42">
-        <v>22092</v>
+        <v>3167</v>
       </c>
       <c r="I42">
-        <v>4818</v>
+        <v>553</v>
       </c>
       <c r="J42">
-        <v>11046</v>
+        <v>1288</v>
       </c>
       <c r="K42">
-        <v>1734</v>
+        <v>185</v>
       </c>
       <c r="L42">
-        <v>4672</v>
+        <v>503</v>
       </c>
       <c r="M42">
-        <v>3245</v>
+        <v>271</v>
       </c>
       <c r="N42">
-        <v>3652</v>
+        <v>321</v>
       </c>
       <c r="O42">
-        <v>377</v>
+        <v>42</v>
       </c>
       <c r="P42">
-        <v>2544</v>
+        <v>257</v>
       </c>
       <c r="Q42">
-        <v>3941</v>
+        <v>531</v>
       </c>
       <c r="R42">
-        <v>592</v>
+        <v>74</v>
       </c>
       <c r="S42">
-        <v>192</v>
+        <v>19</v>
       </c>
       <c r="T42">
-        <v>1686</v>
+        <v>243</v>
       </c>
       <c r="U42">
-        <v>1217</v>
+        <v>172</v>
       </c>
       <c r="V42">
-        <v>14615</v>
+        <v>1562</v>
       </c>
       <c r="W42">
-        <v>0.436</v>
+        <v>0.429</v>
       </c>
       <c r="X42">
-        <v>0.371</v>
+        <v>0.368</v>
       </c>
       <c r="Y42">
-        <v>0.889</v>
+        <v>0.844</v>
       </c>
       <c r="Z42">
-        <v>36.3</v>
+        <v>38.6</v>
       </c>
       <c r="AA42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AB42">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AC42">
         <v>6.5</v>
@@ -4726,32 +4720,32 @@
         <v>22</v>
       </c>
       <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>6</v>
+      </c>
+      <c r="H43">
+        <v>21</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
         <v>2</v>
       </c>
-      <c r="G43">
-        <v>10</v>
-      </c>
-      <c r="H43">
-        <v>40</v>
-      </c>
-      <c r="I43">
-        <v>7</v>
-      </c>
-      <c r="J43">
-        <v>12</v>
-      </c>
-      <c r="K43">
-        <v>1</v>
-      </c>
-      <c r="L43">
+      <c r="N43">
         <v>2</v>
       </c>
-      <c r="M43">
-        <v>3</v>
-      </c>
-      <c r="N43">
-        <v>3</v>
-      </c>
       <c r="O43">
         <v>0</v>
       </c>
@@ -4759,10 +4753,10 @@
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -4771,31 +4765,31 @@
         <v>8</v>
       </c>
       <c r="U43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="W43">
-        <v>0.583</v>
+        <v>0.5</v>
       </c>
       <c r="X43">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y43">
         <v>1</v>
       </c>
       <c r="Z43">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AA43">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AB43">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC43">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AD43" t="s">
         <v>160</v>
@@ -4818,76 +4812,76 @@
         <v>21</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>48</v>
+      </c>
+      <c r="H44">
+        <v>702</v>
+      </c>
+      <c r="I44">
+        <v>56</v>
+      </c>
+      <c r="J44">
+        <v>151</v>
+      </c>
+      <c r="K44">
+        <v>23</v>
+      </c>
+      <c r="L44">
+        <v>73</v>
+      </c>
+      <c r="M44">
+        <v>8</v>
+      </c>
+      <c r="N44">
+        <v>14</v>
+      </c>
+      <c r="O44">
         <v>4</v>
       </c>
-      <c r="G44">
-        <v>160</v>
-      </c>
-      <c r="H44">
-        <v>3083</v>
-      </c>
-      <c r="I44">
-        <v>315</v>
-      </c>
-      <c r="J44">
-        <v>789</v>
-      </c>
-      <c r="K44">
-        <v>128</v>
-      </c>
-      <c r="L44">
-        <v>346</v>
-      </c>
-      <c r="M44">
-        <v>44</v>
-      </c>
-      <c r="N44">
-        <v>72</v>
-      </c>
-      <c r="O44">
-        <v>23</v>
-      </c>
       <c r="P44">
-        <v>253</v>
+        <v>42</v>
       </c>
       <c r="Q44">
-        <v>779</v>
+        <v>143</v>
       </c>
       <c r="R44">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="S44">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T44">
-        <v>285</v>
+        <v>57</v>
       </c>
       <c r="U44">
-        <v>180</v>
+        <v>48</v>
       </c>
       <c r="V44">
-        <v>802</v>
+        <v>143</v>
       </c>
       <c r="W44">
-        <v>0.399</v>
+        <v>0.371</v>
       </c>
       <c r="X44">
-        <v>0.37</v>
+        <v>0.315</v>
       </c>
       <c r="Y44">
-        <v>0.611</v>
+        <v>0.571</v>
       </c>
       <c r="Z44">
-        <v>19.3</v>
+        <v>14.6</v>
       </c>
       <c r="AA44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB44">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="AC44">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="AD44" t="s">
         <v>160</v>
@@ -4999,76 +4993,76 @@
         <v>21</v>
       </c>
       <c r="F46">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>511</v>
+        <v>27</v>
       </c>
       <c r="H46">
-        <v>16115</v>
+        <v>475</v>
       </c>
       <c r="I46">
-        <v>3030</v>
+        <v>62</v>
       </c>
       <c r="J46">
-        <v>6629</v>
+        <v>141</v>
       </c>
       <c r="K46">
-        <v>891</v>
+        <v>14</v>
       </c>
       <c r="L46">
-        <v>2276</v>
+        <v>45</v>
       </c>
       <c r="M46">
-        <v>1355</v>
+        <v>27</v>
       </c>
       <c r="N46">
-        <v>1549</v>
+        <v>32</v>
       </c>
       <c r="O46">
-        <v>304</v>
+        <v>4</v>
       </c>
       <c r="P46">
-        <v>2368</v>
+        <v>50</v>
       </c>
       <c r="Q46">
-        <v>1701</v>
+        <v>28</v>
       </c>
       <c r="R46">
-        <v>643</v>
+        <v>15</v>
       </c>
       <c r="S46">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="T46">
-        <v>971</v>
+        <v>11</v>
       </c>
       <c r="U46">
-        <v>1329</v>
+        <v>53</v>
       </c>
       <c r="V46">
-        <v>8306</v>
+        <v>165</v>
       </c>
       <c r="W46">
-        <v>0.457</v>
+        <v>0.44</v>
       </c>
       <c r="X46">
-        <v>0.391</v>
+        <v>0.311</v>
       </c>
       <c r="Y46">
-        <v>0.875</v>
+        <v>0.844</v>
       </c>
       <c r="Z46">
-        <v>31.5</v>
+        <v>17.6</v>
       </c>
       <c r="AA46">
-        <v>16.3</v>
+        <v>6.1</v>
       </c>
       <c r="AB46">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="AC46">
-        <v>3.3</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="s">
         <v>160</v>
@@ -5091,76 +5085,76 @@
         <v>22</v>
       </c>
       <c r="F47">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>253</v>
+        <v>52</v>
       </c>
       <c r="H47">
-        <v>5161</v>
+        <v>694</v>
       </c>
       <c r="I47">
-        <v>523</v>
+        <v>44</v>
       </c>
       <c r="J47">
-        <v>1252</v>
+        <v>108</v>
       </c>
       <c r="K47">
-        <v>327</v>
+        <v>22</v>
       </c>
       <c r="L47">
-        <v>856</v>
+        <v>56</v>
       </c>
       <c r="M47">
-        <v>151</v>
+        <v>8</v>
       </c>
       <c r="N47">
-        <v>182</v>
+        <v>8</v>
       </c>
       <c r="O47">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="P47">
-        <v>423</v>
+        <v>78</v>
       </c>
       <c r="Q47">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="R47">
-        <v>110</v>
+        <v>17</v>
       </c>
       <c r="S47">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="T47">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="U47">
-        <v>510</v>
+        <v>89</v>
       </c>
       <c r="V47">
-        <v>1524</v>
+        <v>118</v>
       </c>
       <c r="W47">
-        <v>0.418</v>
+        <v>0.407</v>
       </c>
       <c r="X47">
-        <v>0.382</v>
+        <v>0.393</v>
       </c>
       <c r="Y47">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="Z47">
-        <v>20.4</v>
+        <v>13.3</v>
       </c>
       <c r="AA47">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="AB47">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AC47">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="AD47" t="s">
         <v>160</v>
@@ -5183,76 +5177,76 @@
         <v>20</v>
       </c>
       <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>7</v>
+      </c>
+      <c r="H48">
+        <v>26</v>
+      </c>
+      <c r="I48">
+        <v>4</v>
+      </c>
+      <c r="J48">
+        <v>12</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <v>1</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
+      </c>
+      <c r="O48">
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="Q48">
         <v>3</v>
       </c>
-      <c r="G48">
-        <v>69</v>
-      </c>
-      <c r="H48">
-        <v>934</v>
-      </c>
-      <c r="I48">
-        <v>107</v>
-      </c>
-      <c r="J48">
-        <v>306</v>
-      </c>
-      <c r="K48">
-        <v>33</v>
-      </c>
-      <c r="L48">
-        <v>113</v>
-      </c>
-      <c r="M48">
-        <v>48</v>
-      </c>
-      <c r="N48">
-        <v>68</v>
-      </c>
-      <c r="O48">
-        <v>41</v>
-      </c>
-      <c r="P48">
-        <v>169</v>
-      </c>
-      <c r="Q48">
-        <v>37</v>
-      </c>
       <c r="R48">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="S48">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="T48">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="U48">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="V48">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="W48">
-        <v>0.35</v>
+        <v>0.333</v>
       </c>
       <c r="X48">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="Y48">
-        <v>0.706</v>
+        <v>0.5</v>
       </c>
       <c r="Z48">
-        <v>13.5</v>
+        <v>3.7</v>
       </c>
       <c r="AA48">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="AB48">
-        <v>2.4</v>
+        <v>0.3</v>
       </c>
       <c r="AC48">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AD48" t="s">
         <v>160</v>
@@ -5275,76 +5269,76 @@
         <v>22</v>
       </c>
       <c r="F49">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>251</v>
+        <v>44</v>
       </c>
       <c r="H49">
-        <v>4566</v>
+        <v>538</v>
       </c>
       <c r="I49">
-        <v>731</v>
+        <v>97</v>
       </c>
       <c r="J49">
-        <v>1558</v>
+        <v>213</v>
       </c>
       <c r="K49">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="L49">
-        <v>404</v>
+        <v>83</v>
       </c>
       <c r="M49">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="N49">
-        <v>417</v>
+        <v>51</v>
       </c>
       <c r="O49">
-        <v>298</v>
+        <v>36</v>
       </c>
       <c r="P49">
-        <v>952</v>
+        <v>93</v>
       </c>
       <c r="Q49">
-        <v>269</v>
+        <v>31</v>
       </c>
       <c r="R49">
-        <v>118</v>
+        <v>7</v>
       </c>
       <c r="S49">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="T49">
-        <v>287</v>
+        <v>37</v>
       </c>
       <c r="U49">
-        <v>538</v>
+        <v>73</v>
       </c>
       <c r="V49">
-        <v>1832</v>
+        <v>250</v>
       </c>
       <c r="W49">
-        <v>0.469</v>
+        <v>0.455</v>
       </c>
       <c r="X49">
-        <v>0.3</v>
+        <v>0.289</v>
       </c>
       <c r="Y49">
-        <v>0.597</v>
+        <v>0.627</v>
       </c>
       <c r="Z49">
-        <v>18.2</v>
+        <v>12.2</v>
       </c>
       <c r="AA49">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="AB49">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="AC49">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD49" t="s">
         <v>160</v>
@@ -5367,19 +5361,19 @@
         <v>22</v>
       </c>
       <c r="F50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="H50">
-        <v>729</v>
+        <v>542</v>
       </c>
       <c r="I50">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="J50">
-        <v>172</v>
+        <v>134</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -5388,46 +5382,46 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="N50">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O50">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="P50">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="Q50">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="R50">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="S50">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="T50">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="U50">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="V50">
-        <v>210</v>
+        <v>174</v>
       </c>
       <c r="W50">
-        <v>0.547</v>
+        <v>0.582</v>
       </c>
       <c r="Y50">
-        <v>0.667</v>
+        <v>0.643</v>
       </c>
       <c r="Z50">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="AA50">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="AB50">
         <v>3.1</v>
@@ -5545,76 +5539,73 @@
         <v>23</v>
       </c>
       <c r="F52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>285</v>
+        <v>75</v>
       </c>
       <c r="H52">
-        <v>4080</v>
+        <v>1249</v>
       </c>
       <c r="I52">
-        <v>708</v>
+        <v>256</v>
       </c>
       <c r="J52">
-        <v>1517</v>
+        <v>486</v>
       </c>
       <c r="K52">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="L52">
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="M52">
-        <v>197</v>
+        <v>75</v>
       </c>
       <c r="N52">
-        <v>255</v>
+        <v>94</v>
       </c>
       <c r="O52">
-        <v>188</v>
+        <v>69</v>
       </c>
       <c r="P52">
-        <v>857</v>
+        <v>258</v>
       </c>
       <c r="Q52">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="R52">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="S52">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="T52">
-        <v>212</v>
+        <v>79</v>
       </c>
       <c r="U52">
-        <v>458</v>
+        <v>133</v>
       </c>
       <c r="V52">
-        <v>1700</v>
+        <v>587</v>
       </c>
       <c r="W52">
-        <v>0.467</v>
-      </c>
-      <c r="X52">
-        <v>0.321</v>
+        <v>0.527</v>
       </c>
       <c r="Y52">
-        <v>0.773</v>
+        <v>0.798</v>
       </c>
       <c r="Z52">
-        <v>14.3</v>
+        <v>16.7</v>
       </c>
       <c r="AA52">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AB52">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AC52">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AD52" t="s">
         <v>160</v>
@@ -5637,76 +5628,76 @@
         <v>22</v>
       </c>
       <c r="F53">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>469</v>
+        <v>57</v>
       </c>
       <c r="H53">
-        <v>6659</v>
+        <v>638</v>
       </c>
       <c r="I53">
-        <v>1078</v>
+        <v>101</v>
       </c>
       <c r="J53">
-        <v>2086</v>
+        <v>197</v>
       </c>
       <c r="K53">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>138</v>
+        <v>1</v>
       </c>
       <c r="M53">
-        <v>366</v>
+        <v>30</v>
       </c>
       <c r="N53">
-        <v>495</v>
+        <v>45</v>
       </c>
       <c r="O53">
-        <v>626</v>
+        <v>65</v>
       </c>
       <c r="P53">
-        <v>2148</v>
+        <v>209</v>
       </c>
       <c r="Q53">
-        <v>627</v>
+        <v>52</v>
       </c>
       <c r="R53">
-        <v>187</v>
+        <v>11</v>
       </c>
       <c r="S53">
-        <v>451</v>
+        <v>26</v>
       </c>
       <c r="T53">
-        <v>456</v>
+        <v>37</v>
       </c>
       <c r="U53">
-        <v>958</v>
+        <v>107</v>
       </c>
       <c r="V53">
-        <v>2553</v>
+        <v>232</v>
       </c>
       <c r="W53">
-        <v>0.517</v>
+        <v>0.513</v>
       </c>
       <c r="X53">
-        <v>0.225</v>
+        <v>0</v>
       </c>
       <c r="Y53">
-        <v>0.739</v>
+        <v>0.667</v>
       </c>
       <c r="Z53">
-        <v>14.2</v>
+        <v>11.2</v>
       </c>
       <c r="AA53">
-        <v>5.4</v>
+        <v>4.1</v>
       </c>
       <c r="AB53">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="AC53">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="AD53" t="s">
         <v>160</v>
@@ -5818,19 +5809,19 @@
         <v>24</v>
       </c>
       <c r="F55">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>346</v>
+        <v>14</v>
       </c>
       <c r="H55">
-        <v>5658</v>
+        <v>55</v>
       </c>
       <c r="I55">
-        <v>748</v>
+        <v>5</v>
       </c>
       <c r="J55">
-        <v>1381</v>
+        <v>21</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -5839,52 +5830,52 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>201</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>370</v>
+        <v>4</v>
       </c>
       <c r="O55">
-        <v>547</v>
+        <v>12</v>
       </c>
       <c r="P55">
-        <v>1562</v>
+        <v>22</v>
       </c>
       <c r="Q55">
-        <v>178</v>
+        <v>2</v>
       </c>
       <c r="R55">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>256</v>
+        <v>3</v>
       </c>
       <c r="T55">
-        <v>308</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>540</v>
+        <v>5</v>
       </c>
       <c r="V55">
-        <v>1697</v>
+        <v>13</v>
       </c>
       <c r="W55">
-        <v>0.542</v>
+        <v>0.238</v>
       </c>
       <c r="Y55">
-        <v>0.543</v>
+        <v>0.75</v>
       </c>
       <c r="Z55">
-        <v>16.4</v>
+        <v>3.9</v>
       </c>
       <c r="AA55">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="AB55">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="AC55">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="AD55" t="s">
         <v>160</v>
@@ -5907,76 +5898,76 @@
         <v>35</v>
       </c>
       <c r="F56">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="H56">
-        <v>4566</v>
+        <v>1263</v>
       </c>
       <c r="I56">
-        <v>334</v>
+        <v>100</v>
       </c>
       <c r="J56">
-        <v>786</v>
+        <v>220</v>
       </c>
       <c r="K56">
-        <v>203</v>
+        <v>53</v>
       </c>
       <c r="L56">
-        <v>535</v>
+        <v>134</v>
       </c>
       <c r="M56">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="N56">
+        <v>25</v>
+      </c>
+      <c r="O56">
+        <v>41</v>
+      </c>
+      <c r="P56">
+        <v>143</v>
+      </c>
+      <c r="Q56">
+        <v>236</v>
+      </c>
+      <c r="R56">
+        <v>69</v>
+      </c>
+      <c r="S56">
+        <v>2</v>
+      </c>
+      <c r="T56">
         <v>86</v>
       </c>
-      <c r="O56">
-        <v>145</v>
-      </c>
-      <c r="P56">
-        <v>505</v>
-      </c>
-      <c r="Q56">
-        <v>765</v>
-      </c>
-      <c r="R56">
-        <v>268</v>
-      </c>
-      <c r="S56">
-        <v>6</v>
-      </c>
-      <c r="T56">
-        <v>257</v>
-      </c>
       <c r="U56">
-        <v>429</v>
+        <v>127</v>
       </c>
       <c r="V56">
-        <v>946</v>
+        <v>275</v>
       </c>
       <c r="W56">
-        <v>0.425</v>
+        <v>0.455</v>
       </c>
       <c r="X56">
-        <v>0.379</v>
+        <v>0.396</v>
       </c>
       <c r="Y56">
-        <v>0.872</v>
+        <v>0.88</v>
       </c>
       <c r="Z56">
-        <v>16.9</v>
+        <v>16.2</v>
       </c>
       <c r="AA56">
         <v>3.5</v>
       </c>
       <c r="AB56">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AC56">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD56" t="s">
         <v>160</v>
@@ -5999,76 +5990,76 @@
         <v>20</v>
       </c>
       <c r="F57">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>545</v>
+        <v>61</v>
       </c>
       <c r="H57">
-        <v>13345</v>
+        <v>1418</v>
       </c>
       <c r="I57">
-        <v>1848</v>
+        <v>145</v>
       </c>
       <c r="J57">
-        <v>4424</v>
+        <v>390</v>
       </c>
       <c r="K57">
-        <v>600</v>
+        <v>28</v>
       </c>
       <c r="L57">
-        <v>1723</v>
+        <v>86</v>
       </c>
       <c r="M57">
-        <v>678</v>
+        <v>59</v>
       </c>
       <c r="N57">
-        <v>1059</v>
+        <v>108</v>
       </c>
       <c r="O57">
-        <v>188</v>
+        <v>16</v>
       </c>
       <c r="P57">
-        <v>1132</v>
+        <v>109</v>
       </c>
       <c r="Q57">
-        <v>1252</v>
+        <v>127</v>
       </c>
       <c r="R57">
-        <v>379</v>
+        <v>26</v>
       </c>
       <c r="S57">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="T57">
-        <v>604</v>
+        <v>74</v>
       </c>
       <c r="U57">
-        <v>1197</v>
+        <v>122</v>
       </c>
       <c r="V57">
-        <v>4974</v>
+        <v>377</v>
       </c>
       <c r="W57">
-        <v>0.418</v>
+        <v>0.372</v>
       </c>
       <c r="X57">
-        <v>0.348</v>
+        <v>0.326</v>
       </c>
       <c r="Y57">
-        <v>0.64</v>
+        <v>0.546</v>
       </c>
       <c r="Z57">
-        <v>24.5</v>
+        <v>23.2</v>
       </c>
       <c r="AA57">
-        <v>9.1</v>
+        <v>6.2</v>
       </c>
       <c r="AB57">
+        <v>1.8</v>
+      </c>
+      <c r="AC57">
         <v>2.1</v>
-      </c>
-      <c r="AC57">
-        <v>2.3</v>
       </c>
       <c r="AD57" t="s">
         <v>160</v>
@@ -6091,76 +6082,76 @@
         <v>27</v>
       </c>
       <c r="F58">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="H58">
-        <v>5207</v>
+        <v>1324</v>
       </c>
       <c r="I58">
-        <v>753</v>
+        <v>213</v>
       </c>
       <c r="J58">
-        <v>1831</v>
+        <v>511</v>
       </c>
       <c r="K58">
-        <v>217</v>
+        <v>59</v>
       </c>
       <c r="L58">
-        <v>610</v>
+        <v>153</v>
       </c>
       <c r="M58">
-        <v>336</v>
+        <v>70</v>
       </c>
       <c r="N58">
-        <v>370</v>
+        <v>77</v>
       </c>
       <c r="O58">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="P58">
-        <v>422</v>
+        <v>97</v>
       </c>
       <c r="Q58">
-        <v>721</v>
+        <v>219</v>
       </c>
       <c r="R58">
-        <v>132</v>
+        <v>37</v>
       </c>
       <c r="S58">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="T58">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="U58">
-        <v>368</v>
+        <v>108</v>
       </c>
       <c r="V58">
-        <v>2059</v>
+        <v>555</v>
       </c>
       <c r="W58">
-        <v>0.411</v>
+        <v>0.417</v>
       </c>
       <c r="X58">
-        <v>0.356</v>
+        <v>0.386</v>
       </c>
       <c r="Y58">
-        <v>0.908</v>
+        <v>0.909</v>
       </c>
       <c r="Z58">
-        <v>16.6</v>
+        <v>17</v>
       </c>
       <c r="AA58">
-        <v>6.6</v>
+        <v>7.1</v>
       </c>
       <c r="AB58">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="AC58">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AD58" t="s">
         <v>160</v>
@@ -6183,76 +6174,76 @@
         <v>21</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="H59">
-        <v>4204</v>
+        <v>1056</v>
       </c>
       <c r="I59">
-        <v>640</v>
+        <v>138</v>
       </c>
       <c r="J59">
-        <v>1361</v>
+        <v>321</v>
       </c>
       <c r="K59">
         <v>0</v>
       </c>
       <c r="L59">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M59">
-        <v>248</v>
+        <v>57</v>
       </c>
       <c r="N59">
-        <v>491</v>
+        <v>109</v>
       </c>
       <c r="O59">
-        <v>542</v>
+        <v>122</v>
       </c>
       <c r="P59">
-        <v>1507</v>
+        <v>315</v>
       </c>
       <c r="Q59">
-        <v>190</v>
+        <v>46</v>
       </c>
       <c r="R59">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="S59">
-        <v>111</v>
+        <v>26</v>
       </c>
       <c r="T59">
-        <v>319</v>
+        <v>88</v>
       </c>
       <c r="U59">
-        <v>546</v>
+        <v>124</v>
       </c>
       <c r="V59">
-        <v>1528</v>
+        <v>333</v>
       </c>
       <c r="W59">
-        <v>0.47</v>
+        <v>0.43</v>
       </c>
       <c r="X59">
         <v>0</v>
       </c>
       <c r="Y59">
-        <v>0.505</v>
+        <v>0.523</v>
       </c>
       <c r="Z59">
-        <v>13.4</v>
+        <v>15.1</v>
       </c>
       <c r="AA59">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="AB59">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="AC59">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD59" t="s">
         <v>160</v>
@@ -6275,76 +6266,76 @@
         <v>21</v>
       </c>
       <c r="F60">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>556</v>
+        <v>73</v>
       </c>
       <c r="H60">
-        <v>13688</v>
+        <v>1239</v>
       </c>
       <c r="I60">
-        <v>2244</v>
+        <v>186</v>
       </c>
       <c r="J60">
-        <v>5336</v>
+        <v>457</v>
       </c>
       <c r="K60">
-        <v>1054</v>
+        <v>65</v>
       </c>
       <c r="L60">
-        <v>2843</v>
+        <v>196</v>
       </c>
       <c r="M60">
-        <v>559</v>
+        <v>30</v>
       </c>
       <c r="N60">
-        <v>677</v>
+        <v>42</v>
       </c>
       <c r="O60">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="P60">
-        <v>1572</v>
+        <v>144</v>
       </c>
       <c r="Q60">
-        <v>610</v>
+        <v>53</v>
       </c>
       <c r="R60">
-        <v>470</v>
+        <v>43</v>
       </c>
       <c r="S60">
-        <v>186</v>
+        <v>14</v>
       </c>
       <c r="T60">
-        <v>500</v>
+        <v>48</v>
       </c>
       <c r="U60">
-        <v>964</v>
+        <v>122</v>
       </c>
       <c r="V60">
-        <v>6101</v>
+        <v>467</v>
       </c>
       <c r="W60">
-        <v>0.421</v>
+        <v>0.407</v>
       </c>
       <c r="X60">
-        <v>0.371</v>
+        <v>0.332</v>
       </c>
       <c r="Y60">
-        <v>0.826</v>
+        <v>0.714</v>
       </c>
       <c r="Z60">
-        <v>24.6</v>
+        <v>17</v>
       </c>
       <c r="AA60">
-        <v>11</v>
+        <v>6.4</v>
       </c>
       <c r="AB60">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="AC60">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD60" t="s">
         <v>160</v>
@@ -6367,76 +6358,73 @@
         <v>23</v>
       </c>
       <c r="F61">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>189</v>
+        <v>32</v>
       </c>
       <c r="H61">
-        <v>2745</v>
+        <v>203</v>
       </c>
       <c r="I61">
-        <v>318</v>
+        <v>18</v>
       </c>
       <c r="J61">
-        <v>729</v>
+        <v>48</v>
       </c>
       <c r="K61">
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="N61">
-        <v>225</v>
+        <v>11</v>
       </c>
       <c r="O61">
-        <v>212</v>
+        <v>9</v>
       </c>
       <c r="P61">
-        <v>593</v>
+        <v>34</v>
       </c>
       <c r="Q61">
-        <v>126</v>
+        <v>6</v>
       </c>
       <c r="R61">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="T61">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="U61">
-        <v>336</v>
+        <v>38</v>
       </c>
       <c r="V61">
-        <v>787</v>
+        <v>43</v>
       </c>
       <c r="W61">
-        <v>0.436</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="Y61">
-        <v>0.671</v>
+        <v>0.636</v>
       </c>
       <c r="Z61">
-        <v>14.5</v>
+        <v>6.3</v>
       </c>
       <c r="AA61">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="AB61">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="AC61">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD61" t="s">
         <v>160</v>
@@ -6459,76 +6447,76 @@
         <v>24</v>
       </c>
       <c r="F62">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>499</v>
+        <v>40</v>
       </c>
       <c r="H62">
-        <v>8242</v>
+        <v>376</v>
       </c>
       <c r="I62">
-        <v>1339</v>
+        <v>70</v>
       </c>
       <c r="J62">
-        <v>2926</v>
+        <v>147</v>
       </c>
       <c r="K62">
-        <v>434</v>
+        <v>0</v>
       </c>
       <c r="L62">
-        <v>1197</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>361</v>
+        <v>43</v>
       </c>
       <c r="N62">
-        <v>475</v>
+        <v>56</v>
       </c>
       <c r="O62">
-        <v>360</v>
+        <v>39</v>
       </c>
       <c r="P62">
-        <v>1584</v>
+        <v>110</v>
       </c>
       <c r="Q62">
-        <v>451</v>
+        <v>12</v>
       </c>
       <c r="R62">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="S62">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="T62">
-        <v>336</v>
+        <v>21</v>
       </c>
       <c r="U62">
-        <v>739</v>
+        <v>32</v>
       </c>
       <c r="V62">
-        <v>3473</v>
+        <v>183</v>
       </c>
       <c r="W62">
-        <v>0.458</v>
+        <v>0.476</v>
       </c>
       <c r="X62">
-        <v>0.363</v>
+        <v>0</v>
       </c>
       <c r="Y62">
-        <v>0.76</v>
+        <v>0.768</v>
       </c>
       <c r="Z62">
-        <v>16.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA62">
-        <v>7</v>
+        <v>4.6</v>
       </c>
       <c r="AB62">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="AC62">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AD62" t="s">
         <v>160</v>
@@ -6551,76 +6539,76 @@
         <v>21</v>
       </c>
       <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>19</v>
+      </c>
+      <c r="H63">
+        <v>93</v>
+      </c>
+      <c r="I63">
+        <v>10</v>
+      </c>
+      <c r="J63">
+        <v>23</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
         <v>2</v>
       </c>
-      <c r="G63">
-        <v>45</v>
-      </c>
-      <c r="H63">
-        <v>247</v>
-      </c>
-      <c r="I63">
+      <c r="M63">
+        <v>9</v>
+      </c>
+      <c r="N63">
+        <v>16</v>
+      </c>
+      <c r="O63">
+        <v>9</v>
+      </c>
+      <c r="P63">
         <v>23</v>
       </c>
-      <c r="J63">
-        <v>51</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>8</v>
-      </c>
-      <c r="M63">
-        <v>12</v>
-      </c>
-      <c r="N63">
-        <v>24</v>
-      </c>
-      <c r="O63">
-        <v>13</v>
-      </c>
-      <c r="P63">
-        <v>39</v>
-      </c>
       <c r="Q63">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="R63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T63">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="U63">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="V63">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="W63">
-        <v>0.451</v>
+        <v>0.435</v>
       </c>
       <c r="X63">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="Y63">
-        <v>0.5</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Z63">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="AA63">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AB63">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AC63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD63" t="s">
         <v>160</v>
@@ -6643,76 +6631,76 @@
         <v>24</v>
       </c>
       <c r="F64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="H64">
-        <v>3271</v>
+        <v>1840</v>
       </c>
       <c r="I64">
-        <v>445</v>
+        <v>236</v>
       </c>
       <c r="J64">
-        <v>1207</v>
+        <v>635</v>
       </c>
       <c r="K64">
-        <v>162</v>
+        <v>85</v>
       </c>
       <c r="L64">
-        <v>529</v>
+        <v>288</v>
       </c>
       <c r="M64">
-        <v>297</v>
+        <v>108</v>
       </c>
       <c r="N64">
-        <v>390</v>
+        <v>150</v>
       </c>
       <c r="O64">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="P64">
-        <v>355</v>
+        <v>175</v>
       </c>
       <c r="Q64">
-        <v>460</v>
+        <v>286</v>
       </c>
       <c r="R64">
-        <v>110</v>
+        <v>54</v>
       </c>
       <c r="S64">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="T64">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="U64">
-        <v>201</v>
+        <v>117</v>
       </c>
       <c r="V64">
-        <v>1349</v>
+        <v>665</v>
       </c>
       <c r="W64">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="X64">
-        <v>0.306</v>
+        <v>0.295</v>
       </c>
       <c r="Y64">
-        <v>0.762</v>
+        <v>0.72</v>
       </c>
       <c r="Z64">
-        <v>18</v>
+        <v>23.9</v>
       </c>
       <c r="AA64">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="AB64">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="AC64">
-        <v>2.5</v>
+        <v>3.7</v>
       </c>
       <c r="AD64" t="s">
         <v>160</v>
@@ -6735,76 +6723,70 @@
         <v>22</v>
       </c>
       <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>2</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+      <c r="I65">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <v>2</v>
+      </c>
+      <c r="P65">
+        <v>2</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+      <c r="V65">
         <v>4</v>
       </c>
-      <c r="G65">
-        <v>135</v>
-      </c>
-      <c r="H65">
-        <v>2542</v>
-      </c>
-      <c r="I65">
-        <v>403</v>
-      </c>
-      <c r="J65">
-        <v>856</v>
-      </c>
-      <c r="K65">
-        <v>4</v>
-      </c>
-      <c r="L65">
-        <v>23</v>
-      </c>
-      <c r="M65">
-        <v>221</v>
-      </c>
-      <c r="N65">
-        <v>288</v>
-      </c>
-      <c r="O65">
-        <v>248</v>
-      </c>
-      <c r="P65">
-        <v>670</v>
-      </c>
-      <c r="Q65">
-        <v>140</v>
-      </c>
-      <c r="R65">
-        <v>76</v>
-      </c>
-      <c r="S65">
-        <v>64</v>
-      </c>
-      <c r="T65">
-        <v>153</v>
-      </c>
-      <c r="U65">
-        <v>289</v>
-      </c>
-      <c r="V65">
-        <v>1031</v>
-      </c>
       <c r="W65">
-        <v>0.471</v>
-      </c>
-      <c r="X65">
-        <v>0.174</v>
-      </c>
-      <c r="Y65">
-        <v>0.767</v>
+        <v>0.667</v>
       </c>
       <c r="Z65">
-        <v>18.8</v>
+        <v>2.5</v>
       </c>
       <c r="AA65">
-        <v>7.6</v>
+        <v>2</v>
       </c>
       <c r="AB65">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD65" t="s">
         <v>160</v>
@@ -6827,76 +6809,76 @@
         <v>24</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="H66">
-        <v>7794</v>
+        <v>2293</v>
       </c>
       <c r="I66">
-        <v>843</v>
+        <v>275</v>
       </c>
       <c r="J66">
-        <v>2015</v>
+        <v>642</v>
       </c>
       <c r="K66">
-        <v>299</v>
+        <v>70</v>
       </c>
       <c r="L66">
-        <v>826</v>
+        <v>200</v>
       </c>
       <c r="M66">
-        <v>341</v>
+        <v>100</v>
       </c>
       <c r="N66">
-        <v>434</v>
+        <v>124</v>
       </c>
       <c r="O66">
-        <v>317</v>
+        <v>109</v>
       </c>
       <c r="P66">
-        <v>1026</v>
+        <v>330</v>
       </c>
       <c r="Q66">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="R66">
-        <v>203</v>
+        <v>57</v>
       </c>
       <c r="S66">
-        <v>110</v>
+        <v>37</v>
       </c>
       <c r="T66">
-        <v>278</v>
+        <v>98</v>
       </c>
       <c r="U66">
-        <v>734</v>
+        <v>217</v>
       </c>
       <c r="V66">
-        <v>2326</v>
+        <v>720</v>
       </c>
       <c r="W66">
-        <v>0.418</v>
+        <v>0.428</v>
       </c>
       <c r="X66">
-        <v>0.362</v>
+        <v>0.35</v>
       </c>
       <c r="Y66">
-        <v>0.786</v>
+        <v>0.806</v>
       </c>
       <c r="Z66">
-        <v>21.9</v>
+        <v>28</v>
       </c>
       <c r="AA66">
-        <v>6.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB66">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AC66">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AD66" t="s">
         <v>160</v>
@@ -6919,76 +6901,76 @@
         <v>20</v>
       </c>
       <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>45</v>
+      </c>
+      <c r="H67">
+        <v>892</v>
+      </c>
+      <c r="I67">
+        <v>111</v>
+      </c>
+      <c r="J67">
+        <v>225</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
         <v>5</v>
       </c>
-      <c r="G67">
-        <v>269</v>
-      </c>
-      <c r="H67">
-        <v>6532</v>
-      </c>
-      <c r="I67">
-        <v>1172</v>
-      </c>
-      <c r="J67">
-        <v>2685</v>
-      </c>
-      <c r="K67">
-        <v>141</v>
-      </c>
-      <c r="L67">
-        <v>518</v>
-      </c>
       <c r="M67">
-        <v>408</v>
+        <v>47</v>
       </c>
       <c r="N67">
-        <v>564</v>
+        <v>63</v>
       </c>
       <c r="O67">
-        <v>684</v>
+        <v>92</v>
       </c>
       <c r="P67">
-        <v>2006</v>
+        <v>264</v>
       </c>
       <c r="Q67">
-        <v>477</v>
+        <v>35</v>
       </c>
       <c r="R67">
-        <v>180</v>
+        <v>22</v>
       </c>
       <c r="S67">
-        <v>161</v>
+        <v>22</v>
       </c>
       <c r="T67">
-        <v>332</v>
+        <v>29</v>
       </c>
       <c r="U67">
-        <v>784</v>
+        <v>154</v>
       </c>
       <c r="V67">
-        <v>2893</v>
+        <v>270</v>
       </c>
       <c r="W67">
-        <v>0.436</v>
+        <v>0.493</v>
       </c>
       <c r="X67">
-        <v>0.272</v>
+        <v>0.2</v>
       </c>
       <c r="Y67">
-        <v>0.723</v>
+        <v>0.746</v>
       </c>
       <c r="Z67">
-        <v>24.3</v>
+        <v>19.8</v>
       </c>
       <c r="AA67">
-        <v>10.8</v>
+        <v>6</v>
       </c>
       <c r="AB67">
-        <v>7.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC67">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AD67" t="s">
         <v>160</v>
@@ -7011,73 +6993,73 @@
         <v>23</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>132</v>
+        <v>77</v>
       </c>
       <c r="H68">
-        <v>2566</v>
+        <v>1507</v>
       </c>
       <c r="I68">
-        <v>299</v>
+        <v>172</v>
       </c>
       <c r="J68">
-        <v>731</v>
+        <v>399</v>
       </c>
       <c r="K68">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="L68">
-        <v>257</v>
+        <v>154</v>
       </c>
       <c r="M68">
-        <v>127</v>
+        <v>75</v>
       </c>
       <c r="N68">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="O68">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="P68">
-        <v>263</v>
+        <v>150</v>
       </c>
       <c r="Q68">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="R68">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="S68">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="T68">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="U68">
-        <v>234</v>
+        <v>136</v>
       </c>
       <c r="V68">
-        <v>807</v>
+        <v>472</v>
       </c>
       <c r="W68">
-        <v>0.409</v>
+        <v>0.431</v>
       </c>
       <c r="X68">
-        <v>0.319</v>
+        <v>0.344</v>
       </c>
       <c r="Y68">
-        <v>0.665</v>
+        <v>0.728</v>
       </c>
       <c r="Z68">
-        <v>19.4</v>
+        <v>19.6</v>
       </c>
       <c r="AA68">
         <v>6.1</v>
       </c>
       <c r="AB68">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AC68">
         <v>0.8</v>
@@ -7103,76 +7085,76 @@
         <v>22</v>
       </c>
       <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>38</v>
+      </c>
+      <c r="H69">
+        <v>221</v>
+      </c>
+      <c r="I69">
+        <v>32</v>
+      </c>
+      <c r="J69">
+        <v>87</v>
+      </c>
+      <c r="K69">
+        <v>6</v>
+      </c>
+      <c r="L69">
+        <v>13</v>
+      </c>
+      <c r="M69">
+        <v>15</v>
+      </c>
+      <c r="N69">
+        <v>27</v>
+      </c>
+      <c r="O69">
         <v>2</v>
       </c>
-      <c r="G69">
-        <v>61</v>
-      </c>
-      <c r="H69">
-        <v>491</v>
-      </c>
-      <c r="I69">
-        <v>63</v>
-      </c>
-      <c r="J69">
-        <v>178</v>
-      </c>
-      <c r="K69">
-        <v>9</v>
-      </c>
-      <c r="L69">
+      <c r="P69">
+        <v>18</v>
+      </c>
+      <c r="Q69">
+        <v>21</v>
+      </c>
+      <c r="R69">
+        <v>13</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
         <v>25</v>
       </c>
-      <c r="M69">
-        <v>39</v>
-      </c>
-      <c r="N69">
-        <v>57</v>
-      </c>
-      <c r="O69">
-        <v>5</v>
-      </c>
-      <c r="P69">
-        <v>33</v>
-      </c>
-      <c r="Q69">
-        <v>57</v>
-      </c>
-      <c r="R69">
+      <c r="U69">
         <v>25</v>
       </c>
-      <c r="S69">
-        <v>1</v>
-      </c>
-      <c r="T69">
-        <v>56</v>
-      </c>
-      <c r="U69">
-        <v>54</v>
-      </c>
       <c r="V69">
-        <v>174</v>
+        <v>85</v>
       </c>
       <c r="W69">
-        <v>0.354</v>
+        <v>0.368</v>
       </c>
       <c r="X69">
-        <v>0.36</v>
+        <v>0.462</v>
       </c>
       <c r="Y69">
-        <v>0.6840000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="Z69">
-        <v>8</v>
+        <v>5.8</v>
       </c>
       <c r="AA69">
-        <v>2.9</v>
+        <v>2.2</v>
       </c>
       <c r="AB69">
         <v>0.5</v>
       </c>
       <c r="AC69">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AD69" t="s">
         <v>160</v>
@@ -7195,76 +7177,76 @@
         <v>19</v>
       </c>
       <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>48</v>
+      </c>
+      <c r="H70">
+        <v>392</v>
+      </c>
+      <c r="I70">
+        <v>43</v>
+      </c>
+      <c r="J70">
+        <v>113</v>
+      </c>
+      <c r="K70">
+        <v>4</v>
+      </c>
+      <c r="L70">
+        <v>23</v>
+      </c>
+      <c r="M70">
+        <v>9</v>
+      </c>
+      <c r="N70">
+        <v>16</v>
+      </c>
+      <c r="O70">
         <v>3</v>
       </c>
-      <c r="G70">
-        <v>91</v>
-      </c>
-      <c r="H70">
-        <v>909</v>
-      </c>
-      <c r="I70">
-        <v>85</v>
-      </c>
-      <c r="J70">
-        <v>248</v>
-      </c>
-      <c r="K70">
-        <v>10</v>
-      </c>
-      <c r="L70">
-        <v>45</v>
-      </c>
-      <c r="M70">
-        <v>37</v>
-      </c>
-      <c r="N70">
-        <v>56</v>
-      </c>
-      <c r="O70">
-        <v>5</v>
-      </c>
       <c r="P70">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="Q70">
-        <v>134</v>
+        <v>63</v>
       </c>
       <c r="R70">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="S70">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="T70">
-        <v>77</v>
+        <v>35</v>
       </c>
       <c r="U70">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="V70">
-        <v>217</v>
+        <v>99</v>
       </c>
       <c r="W70">
-        <v>0.343</v>
+        <v>0.381</v>
       </c>
       <c r="X70">
-        <v>0.222</v>
+        <v>0.174</v>
       </c>
       <c r="Y70">
-        <v>0.661</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="Z70">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA70">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AB70">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AC70">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AD70" t="s">
         <v>160</v>
@@ -7287,76 +7269,76 @@
         <v>27</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>324</v>
+        <v>53</v>
       </c>
       <c r="H71">
-        <v>5765</v>
+        <v>499</v>
       </c>
       <c r="I71">
-        <v>927</v>
+        <v>71</v>
       </c>
       <c r="J71">
-        <v>2285</v>
+        <v>185</v>
       </c>
       <c r="K71">
-        <v>541</v>
+        <v>37</v>
       </c>
       <c r="L71">
-        <v>1460</v>
+        <v>108</v>
       </c>
       <c r="M71">
-        <v>241</v>
+        <v>9</v>
       </c>
       <c r="N71">
-        <v>319</v>
+        <v>11</v>
       </c>
       <c r="O71">
-        <v>189</v>
+        <v>33</v>
       </c>
       <c r="P71">
-        <v>1042</v>
+        <v>95</v>
       </c>
       <c r="Q71">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="R71">
-        <v>104</v>
+        <v>13</v>
       </c>
       <c r="S71">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="T71">
-        <v>255</v>
+        <v>20</v>
       </c>
       <c r="U71">
-        <v>552</v>
+        <v>53</v>
       </c>
       <c r="V71">
-        <v>2636</v>
+        <v>188</v>
       </c>
       <c r="W71">
-        <v>0.406</v>
+        <v>0.384</v>
       </c>
       <c r="X71">
-        <v>0.371</v>
+        <v>0.343</v>
       </c>
       <c r="Y71">
-        <v>0.755</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Z71">
-        <v>17.8</v>
+        <v>9.4</v>
       </c>
       <c r="AA71">
-        <v>8.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB71">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="AC71">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="AD71" t="s">
         <v>160</v>
@@ -7379,76 +7361,73 @@
         <v>20</v>
       </c>
       <c r="F72">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>552</v>
+        <v>62</v>
       </c>
       <c r="H72">
-        <v>13946</v>
+        <v>1482</v>
       </c>
       <c r="I72">
-        <v>2710</v>
+        <v>204</v>
       </c>
       <c r="J72">
-        <v>4818</v>
+        <v>366</v>
       </c>
       <c r="K72">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L72">
-        <v>206</v>
+        <v>0</v>
       </c>
       <c r="M72">
-        <v>1346</v>
+        <v>146</v>
       </c>
       <c r="N72">
-        <v>1723</v>
+        <v>185</v>
       </c>
       <c r="O72">
-        <v>1452</v>
+        <v>121</v>
       </c>
       <c r="P72">
-        <v>4864</v>
+        <v>372</v>
       </c>
       <c r="Q72">
-        <v>501</v>
+        <v>45</v>
       </c>
       <c r="R72">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="S72">
-        <v>578</v>
+        <v>78</v>
       </c>
       <c r="T72">
-        <v>844</v>
+        <v>94</v>
       </c>
       <c r="U72">
-        <v>1535</v>
+        <v>188</v>
       </c>
       <c r="V72">
-        <v>6841</v>
+        <v>554</v>
       </c>
       <c r="W72">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="X72">
-        <v>0.364</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="Y72">
-        <v>0.781</v>
+        <v>0.789</v>
       </c>
       <c r="Z72">
-        <v>25.3</v>
+        <v>23.9</v>
       </c>
       <c r="AA72">
-        <v>12.4</v>
+        <v>8.9</v>
       </c>
       <c r="AB72">
-        <v>8.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="AC72">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="AD72" t="s">
         <v>160</v>
@@ -7471,73 +7450,73 @@
         <v>24</v>
       </c>
       <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>13</v>
+      </c>
+      <c r="H73">
+        <v>58</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>7</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>2</v>
       </c>
-      <c r="G73">
-        <v>37</v>
-      </c>
-      <c r="H73">
-        <v>397</v>
-      </c>
-      <c r="I73">
-        <v>39</v>
-      </c>
-      <c r="J73">
-        <v>67</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>29</v>
-      </c>
       <c r="N73">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="O73">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="P73">
-        <v>72</v>
+        <v>9</v>
       </c>
       <c r="Q73">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="R73">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="S73">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="U73">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="V73">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="W73">
-        <v>0.582</v>
+        <v>0.429</v>
       </c>
       <c r="Y73">
-        <v>0.518</v>
+        <v>0.5</v>
       </c>
       <c r="Z73">
-        <v>10.7</v>
+        <v>4.5</v>
       </c>
       <c r="AA73">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="AB73">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="AC73">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="AD73" t="s">
         <v>160</v>
@@ -7560,76 +7539,76 @@
         <v>21</v>
       </c>
       <c r="F74">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>413</v>
+        <v>61</v>
       </c>
       <c r="H74">
-        <v>11691</v>
+        <v>1756</v>
       </c>
       <c r="I74">
-        <v>2080</v>
+        <v>336</v>
       </c>
       <c r="J74">
-        <v>5047</v>
+        <v>815</v>
       </c>
       <c r="K74">
-        <v>569</v>
+        <v>63</v>
       </c>
       <c r="L74">
-        <v>1636</v>
+        <v>203</v>
       </c>
       <c r="M74">
-        <v>704</v>
+        <v>159</v>
       </c>
       <c r="N74">
-        <v>1018</v>
+        <v>213</v>
       </c>
       <c r="O74">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="P74">
-        <v>1098</v>
+        <v>149</v>
       </c>
       <c r="Q74">
-        <v>1148</v>
+        <v>183</v>
       </c>
       <c r="R74">
-        <v>387</v>
+        <v>59</v>
       </c>
       <c r="S74">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="T74">
-        <v>748</v>
+        <v>121</v>
       </c>
       <c r="U74">
-        <v>799</v>
+        <v>113</v>
       </c>
       <c r="V74">
-        <v>5433</v>
+        <v>894</v>
       </c>
       <c r="W74">
         <v>0.412</v>
       </c>
       <c r="X74">
-        <v>0.348</v>
+        <v>0.31</v>
       </c>
       <c r="Y74">
-        <v>0.6919999999999999</v>
+        <v>0.746</v>
       </c>
       <c r="Z74">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="AA74">
-        <v>13.2</v>
+        <v>14.7</v>
       </c>
       <c r="AB74">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="AC74">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="AD74" t="s">
         <v>160</v>
@@ -7652,19 +7631,19 @@
         <v>21</v>
       </c>
       <c r="F75">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H75">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="I75">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J75">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K75">
         <v>7</v>
@@ -7682,13 +7661,13 @@
         <v>1</v>
       </c>
       <c r="P75">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q75">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R75">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S75">
         <v>0</v>
@@ -7697,13 +7676,13 @@
         <v>15</v>
       </c>
       <c r="U75">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="V75">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="W75">
-        <v>0.3</v>
+        <v>0.295</v>
       </c>
       <c r="X75">
         <v>0.226</v>
@@ -7712,10 +7691,10 @@
         <v>0.895</v>
       </c>
       <c r="Z75">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AA75">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AB75">
         <v>0.3</v>
@@ -7830,76 +7809,76 @@
         <v>19</v>
       </c>
       <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77">
+        <v>35</v>
+      </c>
+      <c r="H77">
+        <v>272</v>
+      </c>
+      <c r="I77">
+        <v>33</v>
+      </c>
+      <c r="J77">
+        <v>86</v>
+      </c>
+      <c r="K77">
         <v>4</v>
       </c>
-      <c r="G77">
-        <v>145</v>
-      </c>
-      <c r="H77">
-        <v>3076</v>
-      </c>
-      <c r="I77">
-        <v>575</v>
-      </c>
-      <c r="J77">
-        <v>1393</v>
-      </c>
-      <c r="K77">
-        <v>84</v>
-      </c>
       <c r="L77">
-        <v>363</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>370</v>
+        <v>21</v>
       </c>
       <c r="N77">
-        <v>572</v>
+        <v>29</v>
       </c>
       <c r="O77">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="P77">
-        <v>363</v>
+        <v>28</v>
       </c>
       <c r="Q77">
-        <v>437</v>
+        <v>43</v>
       </c>
       <c r="R77">
-        <v>137</v>
+        <v>8</v>
       </c>
       <c r="S77">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="T77">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="U77">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="V77">
-        <v>1604</v>
+        <v>91</v>
       </c>
       <c r="W77">
-        <v>0.413</v>
+        <v>0.384</v>
       </c>
       <c r="X77">
-        <v>0.231</v>
+        <v>0.25</v>
       </c>
       <c r="Y77">
-        <v>0.647</v>
+        <v>0.724</v>
       </c>
       <c r="Z77">
-        <v>21.2</v>
+        <v>7.8</v>
       </c>
       <c r="AA77">
-        <v>11.1</v>
+        <v>2.6</v>
       </c>
       <c r="AB77">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="AC77">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="AD77" t="s">
         <v>160</v>
@@ -8011,76 +7990,76 @@
         <v>23</v>
       </c>
       <c r="F79">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>412</v>
+        <v>77</v>
       </c>
       <c r="H79">
-        <v>7250</v>
+        <v>2033</v>
       </c>
       <c r="I79">
-        <v>1160</v>
+        <v>245</v>
       </c>
       <c r="J79">
-        <v>2280</v>
+        <v>559</v>
       </c>
       <c r="K79">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L79">
+        <v>4</v>
+      </c>
+      <c r="M79">
+        <v>120</v>
+      </c>
+      <c r="N79">
+        <v>157</v>
+      </c>
+      <c r="O79">
+        <v>159</v>
+      </c>
+      <c r="P79">
+        <v>438</v>
+      </c>
+      <c r="Q79">
+        <v>96</v>
+      </c>
+      <c r="R79">
         <v>35</v>
       </c>
-      <c r="M79">
-        <v>541</v>
-      </c>
-      <c r="N79">
-        <v>708</v>
-      </c>
-      <c r="O79">
-        <v>634</v>
-      </c>
-      <c r="P79">
-        <v>1816</v>
-      </c>
-      <c r="Q79">
-        <v>367</v>
-      </c>
-      <c r="R79">
-        <v>104</v>
-      </c>
       <c r="S79">
-        <v>241</v>
+        <v>70</v>
       </c>
       <c r="T79">
-        <v>348</v>
+        <v>95</v>
       </c>
       <c r="U79">
-        <v>897</v>
+        <v>251</v>
       </c>
       <c r="V79">
-        <v>2871</v>
+        <v>610</v>
       </c>
       <c r="W79">
-        <v>0.509</v>
+        <v>0.438</v>
       </c>
       <c r="X79">
-        <v>0.286</v>
+        <v>0</v>
       </c>
       <c r="Y79">
         <v>0.764</v>
       </c>
       <c r="Z79">
-        <v>17.6</v>
+        <v>26.4</v>
       </c>
       <c r="AA79">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AB79">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="AC79">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="AD79" t="s">
         <v>160</v>
